--- a/differences.xlsx
+++ b/differences.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,26 +21,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="158">
-  <si>
-    <t xml:space="preserve">SBS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DVEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THAI</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="192">
+  <si>
+    <t xml:space="preserve">THAI Dhammayuttika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kammappattā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kammapattā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">āivikatā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bhikkhusaṅgho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bhikkhusaṃgho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saparikka manaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nisajjaṃ 
+ bhikkhu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nisajjaṃ 
+ bhikku </t>
+  </si>
+  <si>
+    <t xml:space="preserve">brahma cariyā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">añña bhāgiyañceva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sikkhāpadavivaṇṇanake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sikkhāpadavivaṇṇake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ñāṇatusita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dvemātikāpāḷi (PTS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Kalyani Yogasrama</t>
   </si>
   <si>
     <t xml:space="preserve">NI</t>
   </si>
   <si>
+    <t xml:space="preserve">pāṭimokkhaṃ</t>
+  </si>
+  <si>
     <t xml:space="preserve">pātimokkhaṃ</t>
   </si>
   <si>
-    <t xml:space="preserve">pāṭimokkhaṃ</t>
-  </si>
-  <si>
     <t xml:space="preserve">paṇṇaraso</t>
   </si>
   <si>
@@ -58,30 +100,27 @@
     <t xml:space="preserve">anusāvitaṃ</t>
   </si>
   <si>
+    <t xml:space="preserve">anussāviyamāne</t>
+  </si>
+  <si>
     <t xml:space="preserve">anusāviyamāne</t>
   </si>
   <si>
-    <t xml:space="preserve">anussāviyamāne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dhārayāmi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dhārayāmīti</t>
-  </si>
-  <si>
     <t xml:space="preserve">does not have this part</t>
   </si>
   <si>
+    <t xml:space="preserve">uddiṭṭhaṃ kho āyasmanto nidānaṃ tatthāyasmante pucchāmi kaccittha parisuddhā dutiyampi pucchāmi kaccittha parisuddhā tatiyampi pucchāmi kaccittha parisuddhā parisuddhetthāyasmanto tasmā tuṇhī evametaṃ dhārayāmi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nidānuddeso niṭṭhito</t>
+  </si>
+  <si>
     <t xml:space="preserve">nidānaṃ niṭṭhitaṃ</t>
   </si>
   <si>
     <t xml:space="preserve">nidānuddeso paṭhamo</t>
   </si>
   <si>
-    <t xml:space="preserve">nidānuddeso niṭṭhito</t>
-  </si>
-  <si>
     <t xml:space="preserve">PA 3</t>
   </si>
   <si>
@@ -112,10 +151,10 @@
     <t xml:space="preserve">āpanno visuddhāpekkho</t>
   </si>
   <si>
+    <t xml:space="preserve">ajānamevaṃ</t>
+  </si>
+  <si>
     <t xml:space="preserve">ajānamevāhaṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ajānamevaṃ</t>
   </si>
   <si>
     <t xml:space="preserve">PA </t>
@@ -128,17 +167,25 @@
  aññataraṃ </t>
   </si>
   <si>
-    <t xml:space="preserve"> cattāro 
- pārājikā 
- niṭṭhitā </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pārājikuddeso 
- dutiyo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pārājikuddeso 
- niṭṭhito </t>
+    <t xml:space="preserve">appaccakkhāya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apaccakkhāya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paṭiseveyya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patiseveyya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pārājikuddeso niṭṭhito </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cattāro pārājikā niṭṭhitā </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pārājikuddeso dutiyo </t>
   </si>
   <si>
     <t xml:space="preserve">SA 1</t>
@@ -175,30 +222,36 @@
  taṃ </t>
   </si>
   <si>
+    <t xml:space="preserve">methunūpasañhitāhi</t>
+  </si>
+  <si>
     <t xml:space="preserve">methunūpasaṃhitāhi</t>
   </si>
   <si>
     <t xml:space="preserve">methunupasaṃhitāhi</t>
   </si>
   <si>
-    <t xml:space="preserve">methunūpasañhitāhi</t>
-  </si>
-  <si>
     <t xml:space="preserve">SA 4</t>
   </si>
   <si>
+    <t xml:space="preserve">methunūpasañhitena</t>
+  </si>
+  <si>
     <t xml:space="preserve">methunūpasaṃhitena</t>
   </si>
   <si>
     <t xml:space="preserve">methunupasaṃhitena</t>
   </si>
   <si>
-    <t xml:space="preserve">methunūpasañhitena</t>
-  </si>
-  <si>
     <t xml:space="preserve">SA 5</t>
   </si>
   <si>
+    <t xml:space="preserve">itthīmatiṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">itthimatiṃ</t>
+  </si>
+  <si>
     <t xml:space="preserve">taṃkhaṇikāyapi</t>
   </si>
   <si>
@@ -217,12 +270,12 @@
     <t xml:space="preserve">SA 7</t>
   </si>
   <si>
+    <t xml:space="preserve">mahallakampana</t>
+  </si>
+  <si>
     <t xml:space="preserve">mahallakaṃ pana</t>
   </si>
   <si>
-    <t xml:space="preserve">mahallakampana</t>
-  </si>
-  <si>
     <t xml:space="preserve">SA 10</t>
   </si>
   <si>
@@ -232,15 +285,30 @@
     <t xml:space="preserve">māyasm…</t>
   </si>
   <si>
+    <t xml:space="preserve">paṭinissajjeyya</t>
+  </si>
+  <si>
     <t xml:space="preserve">paṭinissajeyya</t>
   </si>
   <si>
-    <t xml:space="preserve">paṭinissajjeyya</t>
+    <t xml:space="preserve">SA 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rucittha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruccittha</t>
   </si>
   <si>
     <t xml:space="preserve">SA 12</t>
   </si>
   <si>
+    <t xml:space="preserve">vacanīyameva āyasmā </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vacanīyamevāyasmā</t>
+  </si>
+  <si>
     <t xml:space="preserve">saha dhammena </t>
   </si>
   <si>
@@ -253,6 +321,12 @@
     <t xml:space="preserve">evaṃ saṃvaddhā</t>
   </si>
   <si>
+    <t xml:space="preserve">saṃvaḍḍhā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saṃvaddhā</t>
+  </si>
+  <si>
     <t xml:space="preserve">SA </t>
   </si>
   <si>
@@ -275,6 +349,12 @@
   </si>
   <si>
     <t xml:space="preserve">uttari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saṅghādisesuddeso niṭṭhito </t>
   </si>
   <si>
     <t xml:space="preserve"> terasa 
@@ -283,6 +363,9 @@
  niṭṭhitā</t>
   </si>
   <si>
+    <t xml:space="preserve">saṅghādisesuddeso tatiyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">alaṅkammaniye</t>
   </si>
   <si>
@@ -293,6 +376,12 @@
   </si>
   <si>
     <t xml:space="preserve">nālaṃkammaniyaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aniyatuddeso niṭṭhito</t>
   </si>
   <si>
     <t xml:space="preserve"> dve 
@@ -300,10 +389,22 @@
  niṭṭhitā</t>
   </si>
   <si>
+    <t xml:space="preserve">aniyatuddeso catuttho</t>
+  </si>
+  <si>
     <t xml:space="preserve">kaṭhine</t>
   </si>
   <si>
     <t xml:space="preserve">kathine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bhikkhusammatiyā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bhikkhusammutiyā</t>
   </si>
   <si>
     <t xml:space="preserve">ce 
@@ -563,11 +664,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -584,25 +686,18 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6D6D"/>
-        <bgColor rgb="FFFF6600"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -639,7 +734,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -648,16 +743,32 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -669,66 +780,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF6D6D"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -737,696 +788,959 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D70"/>
+  <dimension ref="B1:F7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ77"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A62" activeCellId="0" sqref="A62"/>
-      <selection pane="bottomRight" activeCell="D68" activeCellId="0" sqref="D68"/>
+      <selection pane="bottomLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
+      <selection pane="bottomRight" activeCell="D44" activeCellId="0" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.59"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="65" style="1" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>2</v>
+      <c r="C1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>9</v>
+        <v>21</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="B6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="true" ht="125.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="7"/>
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="7"/>
+      <c r="AR7" s="7"/>
+      <c r="AS7" s="7"/>
+      <c r="AT7" s="7"/>
+      <c r="AU7" s="7"/>
+      <c r="AV7" s="7"/>
+      <c r="AW7" s="7"/>
+      <c r="AX7" s="7"/>
+      <c r="AY7" s="7"/>
+      <c r="AZ7" s="7"/>
+      <c r="BA7" s="7"/>
+      <c r="BB7" s="7"/>
+      <c r="BC7" s="7"/>
+      <c r="BD7" s="7"/>
+      <c r="BE7" s="7"/>
+      <c r="BF7" s="7"/>
+      <c r="BG7" s="7"/>
+      <c r="BH7" s="7"/>
+      <c r="BI7" s="7"/>
+      <c r="BJ7" s="7"/>
+      <c r="BK7" s="7"/>
+      <c r="BL7" s="7"/>
+      <c r="AMJ7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>25</v>
+        <v>36</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="36.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="B16" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>44</v>
+      <c r="A18" s="0" t="s">
+        <v>54</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>48</v>
+        <v>55</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>62</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>55</v>
+        <v>63</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>58</v>
+        <v>66</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>61</v>
+        <v>70</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>65</v>
+        <v>73</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>67</v>
+        <v>75</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>70</v>
+        <v>77</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>72</v>
+        <v>82</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>73</v>
+      <c r="A28" s="0" t="s">
+        <v>83</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>74</v>
+        <v>84</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>76</v>
+      <c r="A29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>79</v>
+        <v>88</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="47.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="4" t="s">
-        <v>83</v>
+        <v>91</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
-        <v>84</v>
+      <c r="A33" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>85</v>
+        <v>96</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="B34" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="36.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="4" t="s">
-        <v>88</v>
+        <v>98</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="s">
-        <v>89</v>
+      <c r="A36" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="36.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="36.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>94</v>
+        <v>103</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="47.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
-        <v>95</v>
-      </c>
       <c r="C39" s="0" t="s">
-        <v>96</v>
+        <v>112</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
-        <v>97</v>
-      </c>
       <c r="C40" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="4" t="s">
-        <v>101</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="36.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="36.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>108</v>
+        <v>120</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="34.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="34.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="C46" s="0" t="s">
-        <v>110</v>
+        <v>129</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
-        <v>111</v>
-      </c>
       <c r="C47" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="36.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>124</v>
+        <v>131</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="36.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="0" t="s">
-        <v>125</v>
-      </c>
       <c r="C54" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="36.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C59" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C60" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="34.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C62" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="36.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="36.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="47.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="47.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="36.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="36.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>147</v>
+    <row r="63" customFormat="false" ht="34.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C63" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="46.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C64" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="46.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C65" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>149</v>
+      <c r="C66" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="0" t="s">
-        <v>150</v>
-      </c>
       <c r="C67" s="0" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>153</v>
+        <v>170</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="36.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="0" t="s">
-        <v>154</v>
-      </c>
       <c r="C69" s="0" t="s">
-        <v>155</v>
+        <v>174</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>156</v>
-      </c>
       <c r="C70" s="0" t="s">
-        <v>157</v>
+        <v>176</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="36.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C71" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C72" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C74" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C75" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C76" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/differences.xlsx
+++ b/differences.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="237">
   <si>
     <t xml:space="preserve">THAI Dhammayuttika</t>
   </si>
@@ -121,6 +121,21 @@
     <t xml:space="preserve">nidānuddeso paṭhamo</t>
   </si>
   <si>
+    <t xml:space="preserve">PA 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appaccakkhāya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apaccakkhāya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paṭiseveyya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patiseveyya</t>
+  </si>
+  <si>
     <t xml:space="preserve">PA 3</t>
   </si>
   <si>
@@ -145,12 +160,12 @@
     <t xml:space="preserve">asamanuggāhīyamāno</t>
   </si>
   <si>
+    <t xml:space="preserve">āpanno visuddhāpekkho</t>
+  </si>
+  <si>
     <t xml:space="preserve">āpannovisuddhāpekkho</t>
   </si>
   <si>
-    <t xml:space="preserve">āpanno visuddhāpekkho</t>
-  </si>
-  <si>
     <t xml:space="preserve">ajānamevaṃ</t>
   </si>
   <si>
@@ -160,25 +175,6 @@
     <t xml:space="preserve">PA </t>
   </si>
   <si>
-    <t xml:space="preserve">bhikkhuaññataraṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bhikkhu 
- aññataraṃ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">appaccakkhāya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apaccakkhāya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paṭiseveyya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patiseveyya</t>
-  </si>
-  <si>
     <t xml:space="preserve">pārājikuddeso niṭṭhito </t>
   </si>
   <si>
@@ -215,13 +211,6 @@
     <t xml:space="preserve">SA 3</t>
   </si>
   <si>
-    <t xml:space="preserve">yathātaṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yathā 
- taṃ </t>
-  </si>
-  <si>
     <t xml:space="preserve">methunūpasañhitāhi</t>
   </si>
   <si>
@@ -261,6 +250,9 @@
     <t xml:space="preserve">SA 6</t>
   </si>
   <si>
+    <t xml:space="preserve">?</t>
+  </si>
+  <si>
     <t xml:space="preserve">vatthuṃ</t>
   </si>
   <si>
@@ -309,18 +301,6 @@
     <t xml:space="preserve">vacanīyamevāyasmā</t>
   </si>
   <si>
-    <t xml:space="preserve">saha dhammena </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sahadhammena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">evaṃsaṃvaddhā</t>
-  </si>
-  <si>
-    <t xml:space="preserve">evaṃ saṃvaddhā</t>
-  </si>
-  <si>
     <t xml:space="preserve">saṃvaḍḍhā</t>
   </si>
   <si>
@@ -342,9 +322,6 @@
     <t xml:space="preserve">tāvatīhaṃ</t>
   </si>
   <si>
-    <t xml:space="preserve">?</t>
-  </si>
-  <si>
     <t xml:space="preserve">uttariṃ</t>
   </si>
   <si>
@@ -357,36 +334,37 @@
     <t xml:space="preserve">saṅghādisesuddeso niṭṭhito </t>
   </si>
   <si>
-    <t xml:space="preserve"> terasa 
- saṅghā 
- disesā 
- niṭṭhitā</t>
+    <t xml:space="preserve"> terasa saṅghā disesā niṭṭhitā</t>
   </si>
   <si>
     <t xml:space="preserve">saṅghādisesuddeso tatiyo</t>
   </si>
   <si>
+    <t xml:space="preserve">AN 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alaṃkammaniye</t>
+  </si>
+  <si>
     <t xml:space="preserve">alaṅkammaniye</t>
   </si>
   <si>
-    <t xml:space="preserve">alaṃkammaniye</t>
+    <t xml:space="preserve">AN 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nālaṃkammaniyaṃ</t>
   </si>
   <si>
     <t xml:space="preserve">nālaṅkammaniyaṃ</t>
   </si>
   <si>
-    <t xml:space="preserve">nālaṃkammaniyaṃ</t>
-  </si>
-  <si>
     <t xml:space="preserve">AN</t>
   </si>
   <si>
     <t xml:space="preserve">aniyatuddeso niṭṭhito</t>
   </si>
   <si>
-    <t xml:space="preserve"> dve 
- aniyatā 
- niṭṭhitā</t>
+    <t xml:space="preserve"> dve aniyatā niṭṭhitā</t>
   </si>
   <si>
     <t xml:space="preserve">aniyatuddeso catuttho</t>
@@ -398,7 +376,7 @@
     <t xml:space="preserve">kathine</t>
   </si>
   <si>
-    <t xml:space="preserve">NP 2</t>
+    <t xml:space="preserve">NP 2 onward</t>
   </si>
   <si>
     <t xml:space="preserve">bhikkhusammatiyā</t>
@@ -407,24 +385,43 @@
     <t xml:space="preserve">bhikkhusammutiyā</t>
   </si>
   <si>
-    <t xml:space="preserve">ce 
- uttariṃ 
- nikkhipeyya </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ce 
- uttari 
- nikkhipeyya </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ce 
- uttariṃ 
- sādiyeyya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ce 
- uttari 
- sādiyeyya </t>
+    <t xml:space="preserve">NP 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">māsaparamantena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">māsaparamaṃ tena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce uttariṃ nikkhipeyya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce uttari nikkhipeyya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abhihaṭṭhumpavāreyya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abhihaṭṭhuṃ pavāreyya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">santaruttaraparamantena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">santaruttaraparamaṃ tena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce uttariṃ sādiyeyya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce uttari sādiyeyya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP 8</t>
   </si>
   <si>
     <t xml:space="preserve">cīvaracetāpanaṃ</t>
@@ -439,77 +436,151 @@
     <t xml:space="preserve">cīvaracetāpannena</t>
   </si>
   <si>
-    <t xml:space="preserve">paccekacīvaracetāpanā 
- upakkhaṭā</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paccekacīvaracetāpannāni 
- upakkhaṭāni </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ubho 
- va </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ubhova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">upasaṅkamatu 
- āyasmā</t>
+    <t xml:space="preserve">NP 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paccekacīvaracetāpanā upakkhaṭā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paccekacīvaracetāpannāni upakkhaṭāni </t>
+  </si>
+  <si>
+    <t xml:space="preserve">paccekacīvaracetāpanehi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paccekacīvaracetāpannehi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paṭiggaṇhātu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patigaṇhātu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cīvaracetāpananti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cīvaracetāpannanti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upasaṅkamatu āyasmā</t>
   </si>
   <si>
     <t xml:space="preserve">upasaṅkamatāyasmā</t>
   </si>
   <si>
-    <t xml:space="preserve">ce 
- uttariṃ 
- vāyamamāno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ce 
- uttari 
- vāyamamāno </t>
+    <t xml:space="preserve">ce uttariṃ vāyamamāno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce uttari vāyamamāno </t>
+  </si>
+  <si>
+    <t xml:space="preserve">paṭiggaṇhāma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patigaṇhāma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dvittikkhattuṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dvattikkhattuṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no ce abhinipphādeyya tato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tantassa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taṃ tassa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vinassīti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vinassāti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP 13&amp;14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">navampana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">navaṃ pana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vissajjetvā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visajjetvā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avissajjetvā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avisajjetvā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nisīdanasanthatampana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nisīdanasanthataṃ pana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hāretabbāni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haritabbāni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce uttariṃ hareyya </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ce uttari hareyya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kosiyavaggo</t>
   </si>
   <si>
     <t xml:space="preserve">eḷakalomavaggo</t>
   </si>
   <si>
-    <t xml:space="preserve">kosiyavaggo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">visajjetvā</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vissajjetvā</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avisajjetvā</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avissajjetvā</t>
-  </si>
-  <si>
-    <t xml:space="preserve">purāṇasanthatassa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">purāṇasantha 
- tassa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ce 
- uttariṃ 
- hareyya </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ce 
- uttari 
- hareyya</t>
+    <t xml:space="preserve">NP 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ayante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ayaṃ te</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nissajjitabbo</t>
   </si>
   <si>
     <t xml:space="preserve">nissajitabbo</t>
   </si>
   <si>
-    <t xml:space="preserve">nissajjitabbo</t>
+    <t xml:space="preserve">NP 23</t>
   </si>
   <si>
     <t xml:space="preserve">seyyathīdaṃ</t>
@@ -518,19 +589,19 @@
     <t xml:space="preserve">seyyathidaṃ</t>
   </si>
   <si>
+    <t xml:space="preserve">madhu phāṇitaṃ </t>
+  </si>
+  <si>
     <t xml:space="preserve">madhuphāṇitaṃ</t>
   </si>
   <si>
-    <t xml:space="preserve">madhu 
- phāṇitaṃ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pariyesitabbam  
- aḍḍhamāso </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pariyesitabbaṃ 
- addhamāso</t>
+    <t xml:space="preserve">NP 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aḍḍhamāso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addhamāso</t>
   </si>
   <si>
     <t xml:space="preserve">orenaḍḍhamāso</t>
@@ -539,45 +610,61 @@
     <t xml:space="preserve">orenaddhamāso</t>
   </si>
   <si>
-    <t xml:space="preserve">ce 
- uttariṃ 
- nikkhipeyya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ce 
- uttariṃ 
- vippavaseyya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ce 
- uttari 
- vippavaseyya </t>
-  </si>
-  <si>
-    <t xml:space="preserve">nissaggiyā 
- pācittiyā 
- dhammā 
- niṭṭhitā </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tiṃsa 
- nissaggiyā pācittiyā 
- dhammā 
- niṭṭhitā </t>
-  </si>
-  <si>
-    <t xml:space="preserve">uttariṃ 
- dirattatirattaṃ 
- saha 
- seyyaṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uttaridirattatirattaṃ 
- sahaseyyaṃ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">uttariṃ 
- chappañcavācāhi </t>
+    <t xml:space="preserve">NP 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">supavāyitañca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suppavāyitañca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kattikatemāsipuṇṇamaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kattikatemāsikapuṇṇamaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce uttariṁ nikkhipeyya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP 29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chārattaparamantena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chārattaparamaṃ tena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce uttariṃ vippavaseyya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce uttari vippavaseyya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nissaggiyā pācittiyā dhammā niṭṭhitā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nissaggiyā pācittiyā dhammā niṭṭhitā </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tiṃsa nissaggiyā pācittiyā dhammā niṭṭhitā </t>
+  </si>
+  <si>
+    <t xml:space="preserve">uttariṃ dirattatirattaṃ saha seyyaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uttaridirattatirattaṃ sahaseyyaṃ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">uttariṃ chappañcavācāhi </t>
   </si>
   <si>
     <t xml:space="preserve">uttarichappañcavācāhi</t>
@@ -589,14 +676,10 @@
     <t xml:space="preserve">pathaviṃ</t>
   </si>
   <si>
-    <t xml:space="preserve">ce 
- uttariṃ 
- appaharitepi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ce 
- uttari 
- appaharitepi </t>
+    <t xml:space="preserve">ce uttariṃ appaharitepi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce uttari appaharitepi </t>
   </si>
   <si>
     <t xml:space="preserve">suriye</t>
@@ -611,13 +694,10 @@
     <t xml:space="preserve">bhikkhunupassayaṃ</t>
   </si>
   <si>
-    <t xml:space="preserve">āmisahetu 
- bhikkhū</t>
-  </si>
-  <si>
-    <t xml:space="preserve">āmisahetu 
- therā 
- bhikkhū</t>
+    <t xml:space="preserve">āmisahetu bhikkhū</t>
+  </si>
+  <si>
+    <t xml:space="preserve">āmisahetu therā bhikkhū</t>
   </si>
   <si>
     <t xml:space="preserve">abhirūheyya</t>
@@ -629,8 +709,7 @@
     <t xml:space="preserve">tiriyaṃtaraṇāya</t>
   </si>
   <si>
-    <t xml:space="preserve"> tiriyaṃ 
- taraṇāya</t>
+    <t xml:space="preserve"> tiriyaṃ taraṇāya</t>
   </si>
   <si>
     <t xml:space="preserve">bhikkhunīparipācitaṃ</t>
@@ -734,7 +813,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -747,7 +826,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -760,15 +843,23 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -867,23 +958,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ77"/>
+  <dimension ref="A1:AMJ91"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
-      <selection pane="bottomRight" activeCell="D44" activeCellId="0" sqref="D44"/>
+      <selection pane="bottomLeft" activeCell="A83" activeCellId="0" sqref="A83"/>
+      <selection pane="bottomRight" activeCell="A78" activeCellId="0" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="14.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.49"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="65" style="1" width="11.54"/>
   </cols>
   <sheetData>
@@ -891,7 +982,7 @@
       <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -908,7 +999,7 @@
       <c r="B2" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="0" t="s">
@@ -919,7 +1010,7 @@
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="B3" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="0" t="s">
@@ -930,7 +1021,7 @@
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="B4" s="0" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="0" t="s">
@@ -958,7 +1049,7 @@
       <c r="B6" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
@@ -966,80 +1057,80 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="true" ht="125.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+    <row r="7" s="5" customFormat="true" ht="82.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="7"/>
-      <c r="AK7" s="7"/>
-      <c r="AL7" s="7"/>
-      <c r="AM7" s="7"/>
-      <c r="AN7" s="7"/>
-      <c r="AO7" s="7"/>
-      <c r="AP7" s="7"/>
-      <c r="AQ7" s="7"/>
-      <c r="AR7" s="7"/>
-      <c r="AS7" s="7"/>
-      <c r="AT7" s="7"/>
-      <c r="AU7" s="7"/>
-      <c r="AV7" s="7"/>
-      <c r="AW7" s="7"/>
-      <c r="AX7" s="7"/>
-      <c r="AY7" s="7"/>
-      <c r="AZ7" s="7"/>
-      <c r="BA7" s="7"/>
-      <c r="BB7" s="7"/>
-      <c r="BC7" s="7"/>
-      <c r="BD7" s="7"/>
-      <c r="BE7" s="7"/>
-      <c r="BF7" s="7"/>
-      <c r="BG7" s="7"/>
-      <c r="BH7" s="7"/>
-      <c r="BI7" s="7"/>
-      <c r="BJ7" s="7"/>
-      <c r="BK7" s="7"/>
-      <c r="BL7" s="7"/>
-      <c r="AMJ7" s="7"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="3"/>
+      <c r="BA7" s="3"/>
+      <c r="BB7" s="3"/>
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="3"/>
+      <c r="BE7" s="3"/>
+      <c r="BF7" s="3"/>
+      <c r="BG7" s="3"/>
+      <c r="BH7" s="3"/>
+      <c r="BI7" s="3"/>
+      <c r="BJ7" s="3"/>
+      <c r="BK7" s="3"/>
+      <c r="BL7" s="3"/>
+      <c r="AMJ7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -1048,43 +1139,45 @@
       <c r="B8" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="B9" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="0" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="0" t="s">
@@ -1093,654 +1186,2255 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="0" t="s">
         <v>40</v>
       </c>
+      <c r="B12" s="0" t="s">
+        <v>41</v>
+      </c>
       <c r="D12" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="0" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B15" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="0" t="s">
+      <c r="C15" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="0" t="s">
+      <c r="B16" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="C16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E16" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>53</v>
+      <c r="B17" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>55</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>57</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>64</v>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>78</v>
+      <c r="A26" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>82</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>82</v>
-      </c>
+      <c r="B27" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>85</v>
+      <c r="A28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>86</v>
+      <c r="A29" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="B30" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>93</v>
+      </c>
       <c r="E30" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="B32" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="D32" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>96</v>
+      <c r="A33" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>91</v>
+      <c r="A34" s="0" t="s">
+        <v>101</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>104</v>
+      <c r="A36" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="47.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E38" s="0" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="0" t="s">
+      <c r="B37" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="C37" s="5" t="s">
         <v>113</v>
       </c>
+      <c r="E37" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="36.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>121</v>
+      <c r="A42" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E43" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" s="2" customFormat="true" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="11"/>
+      <c r="X47" s="11"/>
+      <c r="Y47" s="11"/>
+      <c r="Z47" s="11"/>
+      <c r="AA47" s="11"/>
+      <c r="AB47" s="11"/>
+      <c r="AC47" s="11"/>
+      <c r="AD47" s="11"/>
+      <c r="AE47" s="11"/>
+      <c r="AF47" s="11"/>
+      <c r="AG47" s="11"/>
+      <c r="AH47" s="11"/>
+      <c r="AI47" s="11"/>
+      <c r="AJ47" s="11"/>
+      <c r="AK47" s="11"/>
+      <c r="AL47" s="11"/>
+      <c r="AM47" s="11"/>
+      <c r="AN47" s="11"/>
+      <c r="AO47" s="11"/>
+      <c r="AP47" s="11"/>
+      <c r="AQ47" s="11"/>
+      <c r="AR47" s="11"/>
+      <c r="AS47" s="11"/>
+      <c r="AT47" s="11"/>
+      <c r="AU47" s="11"/>
+      <c r="AV47" s="11"/>
+      <c r="AW47" s="11"/>
+      <c r="AX47" s="11"/>
+      <c r="AY47" s="11"/>
+      <c r="AZ47" s="11"/>
+      <c r="BA47" s="11"/>
+      <c r="BB47" s="11"/>
+      <c r="BC47" s="11"/>
+      <c r="BD47" s="11"/>
+      <c r="BE47" s="11"/>
+      <c r="BF47" s="11"/>
+      <c r="BG47" s="11"/>
+      <c r="BH47" s="11"/>
+      <c r="BI47" s="11"/>
+      <c r="BJ47" s="11"/>
+      <c r="BK47" s="11"/>
+      <c r="BL47" s="11"/>
+      <c r="AMJ47" s="11"/>
+    </row>
+    <row r="48" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="E48" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="11"/>
+      <c r="X48" s="11"/>
+      <c r="Y48" s="11"/>
+      <c r="Z48" s="11"/>
+      <c r="AA48" s="11"/>
+      <c r="AB48" s="11"/>
+      <c r="AC48" s="11"/>
+      <c r="AD48" s="11"/>
+      <c r="AE48" s="11"/>
+      <c r="AF48" s="11"/>
+      <c r="AG48" s="11"/>
+      <c r="AH48" s="11"/>
+      <c r="AI48" s="11"/>
+      <c r="AJ48" s="11"/>
+      <c r="AK48" s="11"/>
+      <c r="AL48" s="11"/>
+      <c r="AM48" s="11"/>
+      <c r="AN48" s="11"/>
+      <c r="AO48" s="11"/>
+      <c r="AP48" s="11"/>
+      <c r="AQ48" s="11"/>
+      <c r="AR48" s="11"/>
+      <c r="AS48" s="11"/>
+      <c r="AT48" s="11"/>
+      <c r="AU48" s="11"/>
+      <c r="AV48" s="11"/>
+      <c r="AW48" s="11"/>
+      <c r="AX48" s="11"/>
+      <c r="AY48" s="11"/>
+      <c r="AZ48" s="11"/>
+      <c r="BA48" s="11"/>
+      <c r="BB48" s="11"/>
+      <c r="BC48" s="11"/>
+      <c r="BD48" s="11"/>
+      <c r="BE48" s="11"/>
+      <c r="BF48" s="11"/>
+      <c r="BG48" s="11"/>
+      <c r="BH48" s="11"/>
+      <c r="BI48" s="11"/>
+      <c r="BJ48" s="11"/>
+      <c r="BK48" s="11"/>
+      <c r="BL48" s="11"/>
+      <c r="AMJ48" s="11"/>
+    </row>
+    <row r="49" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="E49" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
+      <c r="X49" s="11"/>
+      <c r="Y49" s="11"/>
+      <c r="Z49" s="11"/>
+      <c r="AA49" s="11"/>
+      <c r="AB49" s="11"/>
+      <c r="AC49" s="11"/>
+      <c r="AD49" s="11"/>
+      <c r="AE49" s="11"/>
+      <c r="AF49" s="11"/>
+      <c r="AG49" s="11"/>
+      <c r="AH49" s="11"/>
+      <c r="AI49" s="11"/>
+      <c r="AJ49" s="11"/>
+      <c r="AK49" s="11"/>
+      <c r="AL49" s="11"/>
+      <c r="AM49" s="11"/>
+      <c r="AN49" s="11"/>
+      <c r="AO49" s="11"/>
+      <c r="AP49" s="11"/>
+      <c r="AQ49" s="11"/>
+      <c r="AR49" s="11"/>
+      <c r="AS49" s="11"/>
+      <c r="AT49" s="11"/>
+      <c r="AU49" s="11"/>
+      <c r="AV49" s="11"/>
+      <c r="AW49" s="11"/>
+      <c r="AX49" s="11"/>
+      <c r="AY49" s="11"/>
+      <c r="AZ49" s="11"/>
+      <c r="BA49" s="11"/>
+      <c r="BB49" s="11"/>
+      <c r="BC49" s="11"/>
+      <c r="BD49" s="11"/>
+      <c r="BE49" s="11"/>
+      <c r="BF49" s="11"/>
+      <c r="BG49" s="11"/>
+      <c r="BH49" s="11"/>
+      <c r="BI49" s="11"/>
+      <c r="BJ49" s="11"/>
+      <c r="BK49" s="11"/>
+      <c r="BL49" s="11"/>
+      <c r="AMJ49" s="11"/>
+    </row>
+    <row r="50" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="E50" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="11"/>
+      <c r="U50" s="11"/>
+      <c r="V50" s="11"/>
+      <c r="W50" s="11"/>
+      <c r="X50" s="11"/>
+      <c r="Y50" s="11"/>
+      <c r="Z50" s="11"/>
+      <c r="AA50" s="11"/>
+      <c r="AB50" s="11"/>
+      <c r="AC50" s="11"/>
+      <c r="AD50" s="11"/>
+      <c r="AE50" s="11"/>
+      <c r="AF50" s="11"/>
+      <c r="AG50" s="11"/>
+      <c r="AH50" s="11"/>
+      <c r="AI50" s="11"/>
+      <c r="AJ50" s="11"/>
+      <c r="AK50" s="11"/>
+      <c r="AL50" s="11"/>
+      <c r="AM50" s="11"/>
+      <c r="AN50" s="11"/>
+      <c r="AO50" s="11"/>
+      <c r="AP50" s="11"/>
+      <c r="AQ50" s="11"/>
+      <c r="AR50" s="11"/>
+      <c r="AS50" s="11"/>
+      <c r="AT50" s="11"/>
+      <c r="AU50" s="11"/>
+      <c r="AV50" s="11"/>
+      <c r="AW50" s="11"/>
+      <c r="AX50" s="11"/>
+      <c r="AY50" s="11"/>
+      <c r="AZ50" s="11"/>
+      <c r="BA50" s="11"/>
+      <c r="BB50" s="11"/>
+      <c r="BC50" s="11"/>
+      <c r="BD50" s="11"/>
+      <c r="BE50" s="11"/>
+      <c r="BF50" s="11"/>
+      <c r="BG50" s="11"/>
+      <c r="BH50" s="11"/>
+      <c r="BI50" s="11"/>
+      <c r="BJ50" s="11"/>
+      <c r="BK50" s="11"/>
+      <c r="BL50" s="11"/>
+      <c r="AMJ50" s="11"/>
+    </row>
+    <row r="51" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="E51" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
+      <c r="W51" s="11"/>
+      <c r="X51" s="11"/>
+      <c r="Y51" s="11"/>
+      <c r="Z51" s="11"/>
+      <c r="AA51" s="11"/>
+      <c r="AB51" s="11"/>
+      <c r="AC51" s="11"/>
+      <c r="AD51" s="11"/>
+      <c r="AE51" s="11"/>
+      <c r="AF51" s="11"/>
+      <c r="AG51" s="11"/>
+      <c r="AH51" s="11"/>
+      <c r="AI51" s="11"/>
+      <c r="AJ51" s="11"/>
+      <c r="AK51" s="11"/>
+      <c r="AL51" s="11"/>
+      <c r="AM51" s="11"/>
+      <c r="AN51" s="11"/>
+      <c r="AO51" s="11"/>
+      <c r="AP51" s="11"/>
+      <c r="AQ51" s="11"/>
+      <c r="AR51" s="11"/>
+      <c r="AS51" s="11"/>
+      <c r="AT51" s="11"/>
+      <c r="AU51" s="11"/>
+      <c r="AV51" s="11"/>
+      <c r="AW51" s="11"/>
+      <c r="AX51" s="11"/>
+      <c r="AY51" s="11"/>
+      <c r="AZ51" s="11"/>
+      <c r="BA51" s="11"/>
+      <c r="BB51" s="11"/>
+      <c r="BC51" s="11"/>
+      <c r="BD51" s="11"/>
+      <c r="BE51" s="11"/>
+      <c r="BF51" s="11"/>
+      <c r="BG51" s="11"/>
+      <c r="BH51" s="11"/>
+      <c r="BI51" s="11"/>
+      <c r="BJ51" s="11"/>
+      <c r="BK51" s="11"/>
+      <c r="BL51" s="11"/>
+      <c r="AMJ51" s="11"/>
+    </row>
+    <row r="52" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="E52" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="11"/>
+      <c r="V52" s="11"/>
+      <c r="W52" s="11"/>
+      <c r="X52" s="11"/>
+      <c r="Y52" s="11"/>
+      <c r="Z52" s="11"/>
+      <c r="AA52" s="11"/>
+      <c r="AB52" s="11"/>
+      <c r="AC52" s="11"/>
+      <c r="AD52" s="11"/>
+      <c r="AE52" s="11"/>
+      <c r="AF52" s="11"/>
+      <c r="AG52" s="11"/>
+      <c r="AH52" s="11"/>
+      <c r="AI52" s="11"/>
+      <c r="AJ52" s="11"/>
+      <c r="AK52" s="11"/>
+      <c r="AL52" s="11"/>
+      <c r="AM52" s="11"/>
+      <c r="AN52" s="11"/>
+      <c r="AO52" s="11"/>
+      <c r="AP52" s="11"/>
+      <c r="AQ52" s="11"/>
+      <c r="AR52" s="11"/>
+      <c r="AS52" s="11"/>
+      <c r="AT52" s="11"/>
+      <c r="AU52" s="11"/>
+      <c r="AV52" s="11"/>
+      <c r="AW52" s="11"/>
+      <c r="AX52" s="11"/>
+      <c r="AY52" s="11"/>
+      <c r="AZ52" s="11"/>
+      <c r="BA52" s="11"/>
+      <c r="BB52" s="11"/>
+      <c r="BC52" s="11"/>
+      <c r="BD52" s="11"/>
+      <c r="BE52" s="11"/>
+      <c r="BF52" s="11"/>
+      <c r="BG52" s="11"/>
+      <c r="BH52" s="11"/>
+      <c r="BI52" s="11"/>
+      <c r="BJ52" s="11"/>
+      <c r="BK52" s="11"/>
+      <c r="BL52" s="11"/>
+      <c r="AMJ52" s="11"/>
+    </row>
+    <row r="53" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E53" s="8"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="11"/>
+      <c r="W53" s="11"/>
+      <c r="X53" s="11"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="11"/>
+      <c r="AA53" s="11"/>
+      <c r="AB53" s="11"/>
+      <c r="AC53" s="11"/>
+      <c r="AD53" s="11"/>
+      <c r="AE53" s="11"/>
+      <c r="AF53" s="11"/>
+      <c r="AG53" s="11"/>
+      <c r="AH53" s="11"/>
+      <c r="AI53" s="11"/>
+      <c r="AJ53" s="11"/>
+      <c r="AK53" s="11"/>
+      <c r="AL53" s="11"/>
+      <c r="AM53" s="11"/>
+      <c r="AN53" s="11"/>
+      <c r="AO53" s="11"/>
+      <c r="AP53" s="11"/>
+      <c r="AQ53" s="11"/>
+      <c r="AR53" s="11"/>
+      <c r="AS53" s="11"/>
+      <c r="AT53" s="11"/>
+      <c r="AU53" s="11"/>
+      <c r="AV53" s="11"/>
+      <c r="AW53" s="11"/>
+      <c r="AX53" s="11"/>
+      <c r="AY53" s="11"/>
+      <c r="AZ53" s="11"/>
+      <c r="BA53" s="11"/>
+      <c r="BB53" s="11"/>
+      <c r="BC53" s="11"/>
+      <c r="BD53" s="11"/>
+      <c r="BE53" s="11"/>
+      <c r="BF53" s="11"/>
+      <c r="BG53" s="11"/>
+      <c r="BH53" s="11"/>
+      <c r="BI53" s="11"/>
+      <c r="BJ53" s="11"/>
+      <c r="BK53" s="11"/>
+      <c r="BL53" s="11"/>
+      <c r="AMJ53" s="11"/>
+    </row>
+    <row r="54" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B54" s="0"/>
+      <c r="C54" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E54" s="8"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="11"/>
+      <c r="V54" s="11"/>
+      <c r="W54" s="11"/>
+      <c r="X54" s="11"/>
+      <c r="Y54" s="11"/>
+      <c r="Z54" s="11"/>
+      <c r="AA54" s="11"/>
+      <c r="AB54" s="11"/>
+      <c r="AC54" s="11"/>
+      <c r="AD54" s="11"/>
+      <c r="AE54" s="11"/>
+      <c r="AF54" s="11"/>
+      <c r="AG54" s="11"/>
+      <c r="AH54" s="11"/>
+      <c r="AI54" s="11"/>
+      <c r="AJ54" s="11"/>
+      <c r="AK54" s="11"/>
+      <c r="AL54" s="11"/>
+      <c r="AM54" s="11"/>
+      <c r="AN54" s="11"/>
+      <c r="AO54" s="11"/>
+      <c r="AP54" s="11"/>
+      <c r="AQ54" s="11"/>
+      <c r="AR54" s="11"/>
+      <c r="AS54" s="11"/>
+      <c r="AT54" s="11"/>
+      <c r="AU54" s="11"/>
+      <c r="AV54" s="11"/>
+      <c r="AW54" s="11"/>
+      <c r="AX54" s="11"/>
+      <c r="AY54" s="11"/>
+      <c r="AZ54" s="11"/>
+      <c r="BA54" s="11"/>
+      <c r="BB54" s="11"/>
+      <c r="BC54" s="11"/>
+      <c r="BD54" s="11"/>
+      <c r="BE54" s="11"/>
+      <c r="BF54" s="11"/>
+      <c r="BG54" s="11"/>
+      <c r="BH54" s="11"/>
+      <c r="BI54" s="11"/>
+      <c r="BJ54" s="11"/>
+      <c r="BK54" s="11"/>
+      <c r="BL54" s="11"/>
+      <c r="AMJ54" s="11"/>
+    </row>
+    <row r="55" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="E55" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="11"/>
+      <c r="V55" s="11"/>
+      <c r="W55" s="11"/>
+      <c r="X55" s="11"/>
+      <c r="Y55" s="11"/>
+      <c r="Z55" s="11"/>
+      <c r="AA55" s="11"/>
+      <c r="AB55" s="11"/>
+      <c r="AC55" s="11"/>
+      <c r="AD55" s="11"/>
+      <c r="AE55" s="11"/>
+      <c r="AF55" s="11"/>
+      <c r="AG55" s="11"/>
+      <c r="AH55" s="11"/>
+      <c r="AI55" s="11"/>
+      <c r="AJ55" s="11"/>
+      <c r="AK55" s="11"/>
+      <c r="AL55" s="11"/>
+      <c r="AM55" s="11"/>
+      <c r="AN55" s="11"/>
+      <c r="AO55" s="11"/>
+      <c r="AP55" s="11"/>
+      <c r="AQ55" s="11"/>
+      <c r="AR55" s="11"/>
+      <c r="AS55" s="11"/>
+      <c r="AT55" s="11"/>
+      <c r="AU55" s="11"/>
+      <c r="AV55" s="11"/>
+      <c r="AW55" s="11"/>
+      <c r="AX55" s="11"/>
+      <c r="AY55" s="11"/>
+      <c r="AZ55" s="11"/>
+      <c r="BA55" s="11"/>
+      <c r="BB55" s="11"/>
+      <c r="BC55" s="11"/>
+      <c r="BD55" s="11"/>
+      <c r="BE55" s="11"/>
+      <c r="BF55" s="11"/>
+      <c r="BG55" s="11"/>
+      <c r="BH55" s="11"/>
+      <c r="BI55" s="11"/>
+      <c r="BJ55" s="11"/>
+      <c r="BK55" s="11"/>
+      <c r="BL55" s="11"/>
+      <c r="AMJ55" s="11"/>
+    </row>
+    <row r="56" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="E56" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="11"/>
+      <c r="V56" s="11"/>
+      <c r="W56" s="11"/>
+      <c r="X56" s="11"/>
+      <c r="Y56" s="11"/>
+      <c r="Z56" s="11"/>
+      <c r="AA56" s="11"/>
+      <c r="AB56" s="11"/>
+      <c r="AC56" s="11"/>
+      <c r="AD56" s="11"/>
+      <c r="AE56" s="11"/>
+      <c r="AF56" s="11"/>
+      <c r="AG56" s="11"/>
+      <c r="AH56" s="11"/>
+      <c r="AI56" s="11"/>
+      <c r="AJ56" s="11"/>
+      <c r="AK56" s="11"/>
+      <c r="AL56" s="11"/>
+      <c r="AM56" s="11"/>
+      <c r="AN56" s="11"/>
+      <c r="AO56" s="11"/>
+      <c r="AP56" s="11"/>
+      <c r="AQ56" s="11"/>
+      <c r="AR56" s="11"/>
+      <c r="AS56" s="11"/>
+      <c r="AT56" s="11"/>
+      <c r="AU56" s="11"/>
+      <c r="AV56" s="11"/>
+      <c r="AW56" s="11"/>
+      <c r="AX56" s="11"/>
+      <c r="AY56" s="11"/>
+      <c r="AZ56" s="11"/>
+      <c r="BA56" s="11"/>
+      <c r="BB56" s="11"/>
+      <c r="BC56" s="11"/>
+      <c r="BD56" s="11"/>
+      <c r="BE56" s="11"/>
+      <c r="BF56" s="11"/>
+      <c r="BG56" s="11"/>
+      <c r="BH56" s="11"/>
+      <c r="BI56" s="11"/>
+      <c r="BJ56" s="11"/>
+      <c r="BK56" s="11"/>
+      <c r="BL56" s="11"/>
+      <c r="AMJ56" s="11"/>
+    </row>
+    <row r="57" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="E57" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="11"/>
+      <c r="T57" s="11"/>
+      <c r="U57" s="11"/>
+      <c r="V57" s="11"/>
+      <c r="W57" s="11"/>
+      <c r="X57" s="11"/>
+      <c r="Y57" s="11"/>
+      <c r="Z57" s="11"/>
+      <c r="AA57" s="11"/>
+      <c r="AB57" s="11"/>
+      <c r="AC57" s="11"/>
+      <c r="AD57" s="11"/>
+      <c r="AE57" s="11"/>
+      <c r="AF57" s="11"/>
+      <c r="AG57" s="11"/>
+      <c r="AH57" s="11"/>
+      <c r="AI57" s="11"/>
+      <c r="AJ57" s="11"/>
+      <c r="AK57" s="11"/>
+      <c r="AL57" s="11"/>
+      <c r="AM57" s="11"/>
+      <c r="AN57" s="11"/>
+      <c r="AO57" s="11"/>
+      <c r="AP57" s="11"/>
+      <c r="AQ57" s="11"/>
+      <c r="AR57" s="11"/>
+      <c r="AS57" s="11"/>
+      <c r="AT57" s="11"/>
+      <c r="AU57" s="11"/>
+      <c r="AV57" s="11"/>
+      <c r="AW57" s="11"/>
+      <c r="AX57" s="11"/>
+      <c r="AY57" s="11"/>
+      <c r="AZ57" s="11"/>
+      <c r="BA57" s="11"/>
+      <c r="BB57" s="11"/>
+      <c r="BC57" s="11"/>
+      <c r="BD57" s="11"/>
+      <c r="BE57" s="11"/>
+      <c r="BF57" s="11"/>
+      <c r="BG57" s="11"/>
+      <c r="BH57" s="11"/>
+      <c r="BI57" s="11"/>
+      <c r="BJ57" s="11"/>
+      <c r="BK57" s="11"/>
+      <c r="BL57" s="11"/>
+      <c r="AMJ57" s="11"/>
+    </row>
+    <row r="58" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="E58" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="11"/>
+      <c r="U58" s="11"/>
+      <c r="V58" s="11"/>
+      <c r="W58" s="11"/>
+      <c r="X58" s="11"/>
+      <c r="Y58" s="11"/>
+      <c r="Z58" s="11"/>
+      <c r="AA58" s="11"/>
+      <c r="AB58" s="11"/>
+      <c r="AC58" s="11"/>
+      <c r="AD58" s="11"/>
+      <c r="AE58" s="11"/>
+      <c r="AF58" s="11"/>
+      <c r="AG58" s="11"/>
+      <c r="AH58" s="11"/>
+      <c r="AI58" s="11"/>
+      <c r="AJ58" s="11"/>
+      <c r="AK58" s="11"/>
+      <c r="AL58" s="11"/>
+      <c r="AM58" s="11"/>
+      <c r="AN58" s="11"/>
+      <c r="AO58" s="11"/>
+      <c r="AP58" s="11"/>
+      <c r="AQ58" s="11"/>
+      <c r="AR58" s="11"/>
+      <c r="AS58" s="11"/>
+      <c r="AT58" s="11"/>
+      <c r="AU58" s="11"/>
+      <c r="AV58" s="11"/>
+      <c r="AW58" s="11"/>
+      <c r="AX58" s="11"/>
+      <c r="AY58" s="11"/>
+      <c r="AZ58" s="11"/>
+      <c r="BA58" s="11"/>
+      <c r="BB58" s="11"/>
+      <c r="BC58" s="11"/>
+      <c r="BD58" s="11"/>
+      <c r="BE58" s="11"/>
+      <c r="BF58" s="11"/>
+      <c r="BG58" s="11"/>
+      <c r="BH58" s="11"/>
+      <c r="BI58" s="11"/>
+      <c r="BJ58" s="11"/>
+      <c r="BK58" s="11"/>
+      <c r="BL58" s="11"/>
+      <c r="AMJ58" s="11"/>
+    </row>
+    <row r="59" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="E59" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="11"/>
+      <c r="T59" s="11"/>
+      <c r="U59" s="11"/>
+      <c r="V59" s="11"/>
+      <c r="W59" s="11"/>
+      <c r="X59" s="11"/>
+      <c r="Y59" s="11"/>
+      <c r="Z59" s="11"/>
+      <c r="AA59" s="11"/>
+      <c r="AB59" s="11"/>
+      <c r="AC59" s="11"/>
+      <c r="AD59" s="11"/>
+      <c r="AE59" s="11"/>
+      <c r="AF59" s="11"/>
+      <c r="AG59" s="11"/>
+      <c r="AH59" s="11"/>
+      <c r="AI59" s="11"/>
+      <c r="AJ59" s="11"/>
+      <c r="AK59" s="11"/>
+      <c r="AL59" s="11"/>
+      <c r="AM59" s="11"/>
+      <c r="AN59" s="11"/>
+      <c r="AO59" s="11"/>
+      <c r="AP59" s="11"/>
+      <c r="AQ59" s="11"/>
+      <c r="AR59" s="11"/>
+      <c r="AS59" s="11"/>
+      <c r="AT59" s="11"/>
+      <c r="AU59" s="11"/>
+      <c r="AV59" s="11"/>
+      <c r="AW59" s="11"/>
+      <c r="AX59" s="11"/>
+      <c r="AY59" s="11"/>
+      <c r="AZ59" s="11"/>
+      <c r="BA59" s="11"/>
+      <c r="BB59" s="11"/>
+      <c r="BC59" s="11"/>
+      <c r="BD59" s="11"/>
+      <c r="BE59" s="11"/>
+      <c r="BF59" s="11"/>
+      <c r="BG59" s="11"/>
+      <c r="BH59" s="11"/>
+      <c r="BI59" s="11"/>
+      <c r="BJ59" s="11"/>
+      <c r="BK59" s="11"/>
+      <c r="BL59" s="11"/>
+      <c r="AMJ59" s="11"/>
+    </row>
+    <row r="60" s="2" customFormat="true" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="E60" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="11"/>
+      <c r="T60" s="11"/>
+      <c r="U60" s="11"/>
+      <c r="V60" s="11"/>
+      <c r="W60" s="11"/>
+      <c r="X60" s="11"/>
+      <c r="Y60" s="11"/>
+      <c r="Z60" s="11"/>
+      <c r="AA60" s="11"/>
+      <c r="AB60" s="11"/>
+      <c r="AC60" s="11"/>
+      <c r="AD60" s="11"/>
+      <c r="AE60" s="11"/>
+      <c r="AF60" s="11"/>
+      <c r="AG60" s="11"/>
+      <c r="AH60" s="11"/>
+      <c r="AI60" s="11"/>
+      <c r="AJ60" s="11"/>
+      <c r="AK60" s="11"/>
+      <c r="AL60" s="11"/>
+      <c r="AM60" s="11"/>
+      <c r="AN60" s="11"/>
+      <c r="AO60" s="11"/>
+      <c r="AP60" s="11"/>
+      <c r="AQ60" s="11"/>
+      <c r="AR60" s="11"/>
+      <c r="AS60" s="11"/>
+      <c r="AT60" s="11"/>
+      <c r="AU60" s="11"/>
+      <c r="AV60" s="11"/>
+      <c r="AW60" s="11"/>
+      <c r="AX60" s="11"/>
+      <c r="AY60" s="11"/>
+      <c r="AZ60" s="11"/>
+      <c r="BA60" s="11"/>
+      <c r="BB60" s="11"/>
+      <c r="BC60" s="11"/>
+      <c r="BD60" s="11"/>
+      <c r="BE60" s="11"/>
+      <c r="BF60" s="11"/>
+      <c r="BG60" s="11"/>
+      <c r="BH60" s="11"/>
+      <c r="BI60" s="11"/>
+      <c r="BJ60" s="11"/>
+      <c r="BK60" s="11"/>
+      <c r="BL60" s="11"/>
+      <c r="AMJ60" s="11"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" s="2" customFormat="true" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="E63" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11"/>
+      <c r="S63" s="11"/>
+      <c r="T63" s="11"/>
+      <c r="U63" s="11"/>
+      <c r="V63" s="11"/>
+      <c r="W63" s="11"/>
+      <c r="X63" s="11"/>
+      <c r="Y63" s="11"/>
+      <c r="Z63" s="11"/>
+      <c r="AA63" s="11"/>
+      <c r="AB63" s="11"/>
+      <c r="AC63" s="11"/>
+      <c r="AD63" s="11"/>
+      <c r="AE63" s="11"/>
+      <c r="AF63" s="11"/>
+      <c r="AG63" s="11"/>
+      <c r="AH63" s="11"/>
+      <c r="AI63" s="11"/>
+      <c r="AJ63" s="11"/>
+      <c r="AK63" s="11"/>
+      <c r="AL63" s="11"/>
+      <c r="AM63" s="11"/>
+      <c r="AN63" s="11"/>
+      <c r="AO63" s="11"/>
+      <c r="AP63" s="11"/>
+      <c r="AQ63" s="11"/>
+      <c r="AR63" s="11"/>
+      <c r="AS63" s="11"/>
+      <c r="AT63" s="11"/>
+      <c r="AU63" s="11"/>
+      <c r="AV63" s="11"/>
+      <c r="AW63" s="11"/>
+      <c r="AX63" s="11"/>
+      <c r="AY63" s="11"/>
+      <c r="AZ63" s="11"/>
+      <c r="BA63" s="11"/>
+      <c r="BB63" s="11"/>
+      <c r="BC63" s="11"/>
+      <c r="BD63" s="11"/>
+      <c r="BE63" s="11"/>
+      <c r="BF63" s="11"/>
+      <c r="BG63" s="11"/>
+      <c r="BH63" s="11"/>
+      <c r="BI63" s="11"/>
+      <c r="BJ63" s="11"/>
+      <c r="BK63" s="11"/>
+      <c r="BL63" s="11"/>
+      <c r="AMJ63" s="11"/>
+    </row>
+    <row r="64" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="E64" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
+      <c r="S64" s="11"/>
+      <c r="T64" s="11"/>
+      <c r="U64" s="11"/>
+      <c r="V64" s="11"/>
+      <c r="W64" s="11"/>
+      <c r="X64" s="11"/>
+      <c r="Y64" s="11"/>
+      <c r="Z64" s="11"/>
+      <c r="AA64" s="11"/>
+      <c r="AB64" s="11"/>
+      <c r="AC64" s="11"/>
+      <c r="AD64" s="11"/>
+      <c r="AE64" s="11"/>
+      <c r="AF64" s="11"/>
+      <c r="AG64" s="11"/>
+      <c r="AH64" s="11"/>
+      <c r="AI64" s="11"/>
+      <c r="AJ64" s="11"/>
+      <c r="AK64" s="11"/>
+      <c r="AL64" s="11"/>
+      <c r="AM64" s="11"/>
+      <c r="AN64" s="11"/>
+      <c r="AO64" s="11"/>
+      <c r="AP64" s="11"/>
+      <c r="AQ64" s="11"/>
+      <c r="AR64" s="11"/>
+      <c r="AS64" s="11"/>
+      <c r="AT64" s="11"/>
+      <c r="AU64" s="11"/>
+      <c r="AV64" s="11"/>
+      <c r="AW64" s="11"/>
+      <c r="AX64" s="11"/>
+      <c r="AY64" s="11"/>
+      <c r="AZ64" s="11"/>
+      <c r="BA64" s="11"/>
+      <c r="BB64" s="11"/>
+      <c r="BC64" s="11"/>
+      <c r="BD64" s="11"/>
+      <c r="BE64" s="11"/>
+      <c r="BF64" s="11"/>
+      <c r="BG64" s="11"/>
+      <c r="BH64" s="11"/>
+      <c r="BI64" s="11"/>
+      <c r="BJ64" s="11"/>
+      <c r="BK64" s="11"/>
+      <c r="BL64" s="11"/>
+      <c r="AMJ64" s="11"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="67" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="E67" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="11"/>
+      <c r="T67" s="11"/>
+      <c r="U67" s="11"/>
+      <c r="V67" s="11"/>
+      <c r="W67" s="11"/>
+      <c r="X67" s="11"/>
+      <c r="Y67" s="11"/>
+      <c r="Z67" s="11"/>
+      <c r="AA67" s="11"/>
+      <c r="AB67" s="11"/>
+      <c r="AC67" s="11"/>
+      <c r="AD67" s="11"/>
+      <c r="AE67" s="11"/>
+      <c r="AF67" s="11"/>
+      <c r="AG67" s="11"/>
+      <c r="AH67" s="11"/>
+      <c r="AI67" s="11"/>
+      <c r="AJ67" s="11"/>
+      <c r="AK67" s="11"/>
+      <c r="AL67" s="11"/>
+      <c r="AM67" s="11"/>
+      <c r="AN67" s="11"/>
+      <c r="AO67" s="11"/>
+      <c r="AP67" s="11"/>
+      <c r="AQ67" s="11"/>
+      <c r="AR67" s="11"/>
+      <c r="AS67" s="11"/>
+      <c r="AT67" s="11"/>
+      <c r="AU67" s="11"/>
+      <c r="AV67" s="11"/>
+      <c r="AW67" s="11"/>
+      <c r="AX67" s="11"/>
+      <c r="AY67" s="11"/>
+      <c r="AZ67" s="11"/>
+      <c r="BA67" s="11"/>
+      <c r="BB67" s="11"/>
+      <c r="BC67" s="11"/>
+      <c r="BD67" s="11"/>
+      <c r="BE67" s="11"/>
+      <c r="BF67" s="11"/>
+      <c r="BG67" s="11"/>
+      <c r="BH67" s="11"/>
+      <c r="BI67" s="11"/>
+      <c r="BJ67" s="11"/>
+      <c r="BK67" s="11"/>
+      <c r="BL67" s="11"/>
+      <c r="AMJ67" s="11"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="11"/>
+      <c r="T71" s="11"/>
+      <c r="U71" s="11"/>
+      <c r="V71" s="11"/>
+      <c r="W71" s="11"/>
+      <c r="X71" s="11"/>
+      <c r="Y71" s="11"/>
+      <c r="Z71" s="11"/>
+      <c r="AA71" s="11"/>
+      <c r="AB71" s="11"/>
+      <c r="AC71" s="11"/>
+      <c r="AD71" s="11"/>
+      <c r="AE71" s="11"/>
+      <c r="AF71" s="11"/>
+      <c r="AG71" s="11"/>
+      <c r="AH71" s="11"/>
+      <c r="AI71" s="11"/>
+      <c r="AJ71" s="11"/>
+      <c r="AK71" s="11"/>
+      <c r="AL71" s="11"/>
+      <c r="AM71" s="11"/>
+      <c r="AN71" s="11"/>
+      <c r="AO71" s="11"/>
+      <c r="AP71" s="11"/>
+      <c r="AQ71" s="11"/>
+      <c r="AR71" s="11"/>
+      <c r="AS71" s="11"/>
+      <c r="AT71" s="11"/>
+      <c r="AU71" s="11"/>
+      <c r="AV71" s="11"/>
+      <c r="AW71" s="11"/>
+      <c r="AX71" s="11"/>
+      <c r="AY71" s="11"/>
+      <c r="AZ71" s="11"/>
+      <c r="BA71" s="11"/>
+      <c r="BB71" s="11"/>
+      <c r="BC71" s="11"/>
+      <c r="BD71" s="11"/>
+      <c r="BE71" s="11"/>
+      <c r="BF71" s="11"/>
+      <c r="BG71" s="11"/>
+      <c r="BH71" s="11"/>
+      <c r="BI71" s="11"/>
+      <c r="BJ71" s="11"/>
+      <c r="BK71" s="11"/>
+      <c r="BL71" s="11"/>
+      <c r="AMJ71" s="11"/>
+    </row>
+    <row r="72" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="11"/>
+      <c r="S72" s="11"/>
+      <c r="T72" s="11"/>
+      <c r="U72" s="11"/>
+      <c r="V72" s="11"/>
+      <c r="W72" s="11"/>
+      <c r="X72" s="11"/>
+      <c r="Y72" s="11"/>
+      <c r="Z72" s="11"/>
+      <c r="AA72" s="11"/>
+      <c r="AB72" s="11"/>
+      <c r="AC72" s="11"/>
+      <c r="AD72" s="11"/>
+      <c r="AE72" s="11"/>
+      <c r="AF72" s="11"/>
+      <c r="AG72" s="11"/>
+      <c r="AH72" s="11"/>
+      <c r="AI72" s="11"/>
+      <c r="AJ72" s="11"/>
+      <c r="AK72" s="11"/>
+      <c r="AL72" s="11"/>
+      <c r="AM72" s="11"/>
+      <c r="AN72" s="11"/>
+      <c r="AO72" s="11"/>
+      <c r="AP72" s="11"/>
+      <c r="AQ72" s="11"/>
+      <c r="AR72" s="11"/>
+      <c r="AS72" s="11"/>
+      <c r="AT72" s="11"/>
+      <c r="AU72" s="11"/>
+      <c r="AV72" s="11"/>
+      <c r="AW72" s="11"/>
+      <c r="AX72" s="11"/>
+      <c r="AY72" s="11"/>
+      <c r="AZ72" s="11"/>
+      <c r="BA72" s="11"/>
+      <c r="BB72" s="11"/>
+      <c r="BC72" s="11"/>
+      <c r="BD72" s="11"/>
+      <c r="BE72" s="11"/>
+      <c r="BF72" s="11"/>
+      <c r="BG72" s="11"/>
+      <c r="BH72" s="11"/>
+      <c r="BI72" s="11"/>
+      <c r="BJ72" s="11"/>
+      <c r="BK72" s="11"/>
+      <c r="BL72" s="11"/>
+      <c r="AMJ72" s="11"/>
+    </row>
+    <row r="73" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="E73" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="11"/>
+      <c r="T73" s="11"/>
+      <c r="U73" s="11"/>
+      <c r="V73" s="11"/>
+      <c r="W73" s="11"/>
+      <c r="X73" s="11"/>
+      <c r="Y73" s="11"/>
+      <c r="Z73" s="11"/>
+      <c r="AA73" s="11"/>
+      <c r="AB73" s="11"/>
+      <c r="AC73" s="11"/>
+      <c r="AD73" s="11"/>
+      <c r="AE73" s="11"/>
+      <c r="AF73" s="11"/>
+      <c r="AG73" s="11"/>
+      <c r="AH73" s="11"/>
+      <c r="AI73" s="11"/>
+      <c r="AJ73" s="11"/>
+      <c r="AK73" s="11"/>
+      <c r="AL73" s="11"/>
+      <c r="AM73" s="11"/>
+      <c r="AN73" s="11"/>
+      <c r="AO73" s="11"/>
+      <c r="AP73" s="11"/>
+      <c r="AQ73" s="11"/>
+      <c r="AR73" s="11"/>
+      <c r="AS73" s="11"/>
+      <c r="AT73" s="11"/>
+      <c r="AU73" s="11"/>
+      <c r="AV73" s="11"/>
+      <c r="AW73" s="11"/>
+      <c r="AX73" s="11"/>
+      <c r="AY73" s="11"/>
+      <c r="AZ73" s="11"/>
+      <c r="BA73" s="11"/>
+      <c r="BB73" s="11"/>
+      <c r="BC73" s="11"/>
+      <c r="BD73" s="11"/>
+      <c r="BE73" s="11"/>
+      <c r="BF73" s="11"/>
+      <c r="BG73" s="11"/>
+      <c r="BH73" s="11"/>
+      <c r="BI73" s="11"/>
+      <c r="BJ73" s="11"/>
+      <c r="BK73" s="11"/>
+      <c r="BL73" s="11"/>
+      <c r="AMJ73" s="11"/>
+    </row>
+    <row r="74" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="E74" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="11"/>
+      <c r="S74" s="11"/>
+      <c r="T74" s="11"/>
+      <c r="U74" s="11"/>
+      <c r="V74" s="11"/>
+      <c r="W74" s="11"/>
+      <c r="X74" s="11"/>
+      <c r="Y74" s="11"/>
+      <c r="Z74" s="11"/>
+      <c r="AA74" s="11"/>
+      <c r="AB74" s="11"/>
+      <c r="AC74" s="11"/>
+      <c r="AD74" s="11"/>
+      <c r="AE74" s="11"/>
+      <c r="AF74" s="11"/>
+      <c r="AG74" s="11"/>
+      <c r="AH74" s="11"/>
+      <c r="AI74" s="11"/>
+      <c r="AJ74" s="11"/>
+      <c r="AK74" s="11"/>
+      <c r="AL74" s="11"/>
+      <c r="AM74" s="11"/>
+      <c r="AN74" s="11"/>
+      <c r="AO74" s="11"/>
+      <c r="AP74" s="11"/>
+      <c r="AQ74" s="11"/>
+      <c r="AR74" s="11"/>
+      <c r="AS74" s="11"/>
+      <c r="AT74" s="11"/>
+      <c r="AU74" s="11"/>
+      <c r="AV74" s="11"/>
+      <c r="AW74" s="11"/>
+      <c r="AX74" s="11"/>
+      <c r="AY74" s="11"/>
+      <c r="AZ74" s="11"/>
+      <c r="BA74" s="11"/>
+      <c r="BB74" s="11"/>
+      <c r="BC74" s="11"/>
+      <c r="BD74" s="11"/>
+      <c r="BE74" s="11"/>
+      <c r="BF74" s="11"/>
+      <c r="BG74" s="11"/>
+      <c r="BH74" s="11"/>
+      <c r="BI74" s="11"/>
+      <c r="BJ74" s="11"/>
+      <c r="BK74" s="11"/>
+      <c r="BL74" s="11"/>
+      <c r="AMJ74" s="11"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="34.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="34.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="36.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="36.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="34.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="34.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="46.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="46.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="36.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="36.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C71" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C72" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C73" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C74" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C75" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C76" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>189</v>
-      </c>
+    <row r="76" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="E76" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="11"/>
+      <c r="R76" s="11"/>
+      <c r="S76" s="11"/>
+      <c r="T76" s="11"/>
+      <c r="U76" s="11"/>
+      <c r="V76" s="11"/>
+      <c r="W76" s="11"/>
+      <c r="X76" s="11"/>
+      <c r="Y76" s="11"/>
+      <c r="Z76" s="11"/>
+      <c r="AA76" s="11"/>
+      <c r="AB76" s="11"/>
+      <c r="AC76" s="11"/>
+      <c r="AD76" s="11"/>
+      <c r="AE76" s="11"/>
+      <c r="AF76" s="11"/>
+      <c r="AG76" s="11"/>
+      <c r="AH76" s="11"/>
+      <c r="AI76" s="11"/>
+      <c r="AJ76" s="11"/>
+      <c r="AK76" s="11"/>
+      <c r="AL76" s="11"/>
+      <c r="AM76" s="11"/>
+      <c r="AN76" s="11"/>
+      <c r="AO76" s="11"/>
+      <c r="AP76" s="11"/>
+      <c r="AQ76" s="11"/>
+      <c r="AR76" s="11"/>
+      <c r="AS76" s="11"/>
+      <c r="AT76" s="11"/>
+      <c r="AU76" s="11"/>
+      <c r="AV76" s="11"/>
+      <c r="AW76" s="11"/>
+      <c r="AX76" s="11"/>
+      <c r="AY76" s="11"/>
+      <c r="AZ76" s="11"/>
+      <c r="BA76" s="11"/>
+      <c r="BB76" s="11"/>
+      <c r="BC76" s="11"/>
+      <c r="BD76" s="11"/>
+      <c r="BE76" s="11"/>
+      <c r="BF76" s="11"/>
+      <c r="BG76" s="11"/>
+      <c r="BH76" s="11"/>
+      <c r="BI76" s="11"/>
+      <c r="BJ76" s="11"/>
+      <c r="BK76" s="11"/>
+      <c r="BL76" s="11"/>
+      <c r="AMJ76" s="11"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>191</v>
+        <v>202</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="47.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C79" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C80" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C81" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="36.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C82" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C83" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C84" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="36.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C85" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C86" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C87" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C88" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C89" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C90" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/differences.xlsx
+++ b/differences.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="419">
   <si>
     <t xml:space="preserve">THAI Dhammayuttika</t>
   </si>
@@ -106,7 +106,7 @@
     <t xml:space="preserve">anusāviyamāne</t>
   </si>
   <si>
-    <t xml:space="preserve">does not have this part</t>
+    <t xml:space="preserve">(does not have)</t>
   </si>
   <si>
     <t xml:space="preserve">uddiṭṭhaṃ kho āyasmanto nidānaṃ tatthāyasmante pucchāmi kaccittha parisuddhā dutiyampi pucchāmi kaccittha parisuddhā tatiyampi pucchāmi kaccittha parisuddhā parisuddhetthāyasmanto tasmā tuṇhī evametaṃ dhārayāmi</t>
@@ -658,16 +658,28 @@
     <t xml:space="preserve">tiṃsa nissaggiyā pācittiyā dhammā niṭṭhitā </t>
   </si>
   <si>
-    <t xml:space="preserve">uttariṃ dirattatirattaṃ saha seyyaṃ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uttaridirattatirattaṃ sahaseyyaṃ </t>
+    <t xml:space="preserve">PC 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uttaridvirattatirattaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uttariṃ dirattatirattaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uttaridirattatirattaṃ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uttarichappañcavācāhi</t>
   </si>
   <si>
     <t xml:space="preserve">uttariṃ chappañcavācāhi </t>
   </si>
   <si>
-    <t xml:space="preserve">uttarichappañcavācāhi</t>
+    <t xml:space="preserve">PC 10</t>
   </si>
   <si>
     <t xml:space="preserve">paṭhaviṃ</t>
@@ -676,40 +688,91 @@
     <t xml:space="preserve">pathaviṃ</t>
   </si>
   <si>
+    <t xml:space="preserve">PC 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bhūtagāmapātabyatāya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bhūtagāmapātavyatāya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khiyyanake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khīyanake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC 14&amp;15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anāpucchaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anāpucchā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dvitticchadanassa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dvatticchadanassa</t>
+  </si>
+  <si>
     <t xml:space="preserve">ce uttariṃ appaharitepi </t>
   </si>
   <si>
     <t xml:space="preserve">ce uttari appaharitepi </t>
   </si>
   <si>
+    <t xml:space="preserve">PC 22</t>
+  </si>
+  <si>
     <t xml:space="preserve">suriye</t>
   </si>
   <si>
     <t xml:space="preserve">sūriye</t>
   </si>
   <si>
+    <t xml:space="preserve">PC 23</t>
+  </si>
+  <si>
     <t xml:space="preserve">bhikkhunūpassayaṃ</t>
   </si>
   <si>
     <t xml:space="preserve">bhikkhunupassayaṃ</t>
   </si>
   <si>
+    <t xml:space="preserve">PC 24</t>
+  </si>
+  <si>
     <t xml:space="preserve">āmisahetu bhikkhū</t>
   </si>
   <si>
     <t xml:space="preserve">āmisahetu therā bhikkhū</t>
   </si>
   <si>
+    <t xml:space="preserve">PC 28</t>
+  </si>
+  <si>
     <t xml:space="preserve">abhirūheyya</t>
   </si>
   <si>
     <t xml:space="preserve">abhiruheyya</t>
   </si>
   <si>
-    <t xml:space="preserve">tiriyaṃtaraṇāya</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tiriyaṃ taraṇāya</t>
+    <t xml:space="preserve">tiriyantaraṇāya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tiriyaṃ taraṇāya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC 29</t>
   </si>
   <si>
     <t xml:space="preserve">bhikkhunīparipācitaṃ</t>
@@ -718,10 +781,22 @@
     <t xml:space="preserve">bhikkhuniparipācitaṃ</t>
   </si>
   <si>
+    <t xml:space="preserve">gihisamārambhā</t>
+  </si>
+  <si>
     <t xml:space="preserve">gihīsamārambhā</t>
   </si>
   <si>
-    <t xml:space="preserve">gihisamārambhā</t>
+    <t xml:space="preserve">PC 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ovādavaggo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bhikkhunovādavaggo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC 32</t>
   </si>
   <si>
     <t xml:space="preserve">nāvābhirūhanasamayo</t>
@@ -730,10 +805,481 @@
     <t xml:space="preserve">nāvābhiruhanasamayo</t>
   </si>
   <si>
-    <t xml:space="preserve">PA 38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not there?</t>
+    <t xml:space="preserve">PC 34&amp;36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abhihaṭṭhumpavāreyya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dvittipattapūrā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dvattipattapūrā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dvittipattapūre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dvattipattapūre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">udakadantapoṇā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">udakadantaponā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC 43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anūpakhajja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anupakhajja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC 47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cātumāsapaccayapavāraṇā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cātumāsappaccayapavāraṇā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC 48 onward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tathārūpapaccayā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tathārūpappaccayā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC 49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dvirattatirattaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dirattatirattaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dvirattatirattañce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dirattatirattaṃ ce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC 56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visīvanāpekkho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visibbanāpekkho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC 57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orenaḍḍhamāsaṃ nhāyeyya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orenaddhamāsaṃ nahāyeyya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC 58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC 63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nīhatādhikaraṇaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nihatādhikaraṇaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukkoęyya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukkoṭeyya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC 68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">āvuso antarāyikā dhammā vuttā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">āvuso antarāyikā dhammā antarāyikā vuttā </t>
+  </si>
+  <si>
+    <t xml:space="preserve">evañca so </t>
+  </si>
+  <si>
+    <t xml:space="preserve">evañca pana so</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC 69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akaṭānudhammena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akatānudhammena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC 70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samaṇuddesa antarāyikā dhammā vuttā </t>
+  </si>
+  <si>
+    <t xml:space="preserve">samaṇuddesa antarāyikā dhammā antarāyikā vuttā </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dvirattatirattaṃ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">carapi re</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cara pare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sappāṇavaggo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sappāṇakavaggo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC 71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">naññaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">na aññaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">byattaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vyattaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC 72 73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pāṭimokkhe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pātimokkhe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC 72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kimpanimehi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiṃ panimehi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC 73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anvaḍḍhamāsaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anvaddhamāsaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uttariñcassa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uttariṃ cassa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC 79 81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khiyyanadhammaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khīyanadhammaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC 83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muddhābhisittassa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muddhāvasittassa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aniggataratanake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anībhataratanake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC 84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uggaṇhāpetvā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uggahāpetvā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC 87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC 89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nisīdanampana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nisīdanaṃ pana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pācittiyā niṭṭhitā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dvenavuti pācittiyā dhammā niṭṭhitā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce bhikkhunī</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce sā bhikkhunī</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pāṭidesanīyā niṭṭhitā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cattāro pāṭidesanīyā dhammā niṭṭhitā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parimaṇḍalavaggo paṭhamo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ujjagghikavaggo dutiyo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chabbīsatisāruppā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khambhakatavaggo tatiyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thūpato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thūpakato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK 39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kavaḷaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kabaḷaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sakkaccavaggo catuttho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK 41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kavaḷe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kabaḷe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK 43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sakavaḷena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sakabaḷena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK 45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kavaḷāvacchedakaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kabaḷāvacchedakaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK 47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hatthaniddhūnakaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hatthaniddhunakaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kabaḷavaggo pañcamo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK 56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samatiṃsa bhojanapaṭisaṃyuttā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK 60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">āvudhapāṇissa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">āyudhapāṇissa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surusuruvaggo chaṭṭho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK 66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">veṭṭhitasīsassa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">veṭhitasīsassa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK 68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chamāyaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chamāya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK 72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soḷasa dhammadesanāpaṭisaṃyuttā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK 75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tayo pakiṇṇakā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pādukavaggo sattamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sekhiyā niṭṭhitā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sekhiyā dhammā niṭṭhitā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sattādhikaraṇasamathā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">satta adhikaraṇasamathā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paṭiññātakaraṇaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paṭiññāya kāretabbaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tassapāpiyasikā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tassapāpiyyasikā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sattādhikaraṇasamathā niṭṭhitā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">satta adhikaraṇasamathā dhammā niṭṭhitā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uddiṭṭhā sattādhikaraṇasamathā dhammā </t>
+  </si>
+  <si>
+    <t xml:space="preserve">uddiṭṭhā satta adhikaraṇasamathā dhammā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ettakantassa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ettakaṃ tassa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bhikkhupāṭimokkhaṃ niṭṭhitaṃ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vitthāruddeso pañcamo bhikkhupātimokkhaṃ niṭṭhitaṃ</t>
   </si>
 </sst>
 </file>
@@ -813,7 +1359,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -835,10 +1381,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -958,14 +1500,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ91"/>
+  <dimension ref="A1:AMJ161"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B150" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A83" activeCellId="0" sqref="A83"/>
-      <selection pane="bottomRight" activeCell="A78" activeCellId="0" sqref="A78"/>
+      <selection pane="bottomLeft" activeCell="A150" activeCellId="0" sqref="A150"/>
+      <selection pane="bottomRight" activeCell="B159" activeCellId="0" sqref="B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1061,14 +1603,14 @@
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="3"/>
@@ -1145,7 +1687,7 @@
       <c r="D8" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1380,22 +1922,22 @@
       <c r="A27" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>84</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="10"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="0" t="s">
         <v>88</v>
       </c>
@@ -1404,10 +1946,10 @@
       <c r="A29" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="10"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="0" t="s">
         <v>91</v>
       </c>
@@ -1627,69 +2169,69 @@
       <c r="D47" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
-      <c r="R47" s="11"/>
-      <c r="S47" s="11"/>
-      <c r="T47" s="11"/>
-      <c r="U47" s="11"/>
-      <c r="V47" s="11"/>
-      <c r="W47" s="11"/>
-      <c r="X47" s="11"/>
-      <c r="Y47" s="11"/>
-      <c r="Z47" s="11"/>
-      <c r="AA47" s="11"/>
-      <c r="AB47" s="11"/>
-      <c r="AC47" s="11"/>
-      <c r="AD47" s="11"/>
-      <c r="AE47" s="11"/>
-      <c r="AF47" s="11"/>
-      <c r="AG47" s="11"/>
-      <c r="AH47" s="11"/>
-      <c r="AI47" s="11"/>
-      <c r="AJ47" s="11"/>
-      <c r="AK47" s="11"/>
-      <c r="AL47" s="11"/>
-      <c r="AM47" s="11"/>
-      <c r="AN47" s="11"/>
-      <c r="AO47" s="11"/>
-      <c r="AP47" s="11"/>
-      <c r="AQ47" s="11"/>
-      <c r="AR47" s="11"/>
-      <c r="AS47" s="11"/>
-      <c r="AT47" s="11"/>
-      <c r="AU47" s="11"/>
-      <c r="AV47" s="11"/>
-      <c r="AW47" s="11"/>
-      <c r="AX47" s="11"/>
-      <c r="AY47" s="11"/>
-      <c r="AZ47" s="11"/>
-      <c r="BA47" s="11"/>
-      <c r="BB47" s="11"/>
-      <c r="BC47" s="11"/>
-      <c r="BD47" s="11"/>
-      <c r="BE47" s="11"/>
-      <c r="BF47" s="11"/>
-      <c r="BG47" s="11"/>
-      <c r="BH47" s="11"/>
-      <c r="BI47" s="11"/>
-      <c r="BJ47" s="11"/>
-      <c r="BK47" s="11"/>
-      <c r="BL47" s="11"/>
-      <c r="AMJ47" s="11"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="10"/>
+      <c r="AE47" s="10"/>
+      <c r="AF47" s="10"/>
+      <c r="AG47" s="10"/>
+      <c r="AH47" s="10"/>
+      <c r="AI47" s="10"/>
+      <c r="AJ47" s="10"/>
+      <c r="AK47" s="10"/>
+      <c r="AL47" s="10"/>
+      <c r="AM47" s="10"/>
+      <c r="AN47" s="10"/>
+      <c r="AO47" s="10"/>
+      <c r="AP47" s="10"/>
+      <c r="AQ47" s="10"/>
+      <c r="AR47" s="10"/>
+      <c r="AS47" s="10"/>
+      <c r="AT47" s="10"/>
+      <c r="AU47" s="10"/>
+      <c r="AV47" s="10"/>
+      <c r="AW47" s="10"/>
+      <c r="AX47" s="10"/>
+      <c r="AY47" s="10"/>
+      <c r="AZ47" s="10"/>
+      <c r="BA47" s="10"/>
+      <c r="BB47" s="10"/>
+      <c r="BC47" s="10"/>
+      <c r="BD47" s="10"/>
+      <c r="BE47" s="10"/>
+      <c r="BF47" s="10"/>
+      <c r="BG47" s="10"/>
+      <c r="BH47" s="10"/>
+      <c r="BI47" s="10"/>
+      <c r="BJ47" s="10"/>
+      <c r="BK47" s="10"/>
+      <c r="BL47" s="10"/>
+      <c r="AMJ47" s="10"/>
     </row>
     <row r="48" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
@@ -1699,69 +2241,69 @@
         <v>140</v>
       </c>
       <c r="C48" s="5"/>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11"/>
-      <c r="R48" s="11"/>
-      <c r="S48" s="11"/>
-      <c r="T48" s="11"/>
-      <c r="U48" s="11"/>
-      <c r="V48" s="11"/>
-      <c r="W48" s="11"/>
-      <c r="X48" s="11"/>
-      <c r="Y48" s="11"/>
-      <c r="Z48" s="11"/>
-      <c r="AA48" s="11"/>
-      <c r="AB48" s="11"/>
-      <c r="AC48" s="11"/>
-      <c r="AD48" s="11"/>
-      <c r="AE48" s="11"/>
-      <c r="AF48" s="11"/>
-      <c r="AG48" s="11"/>
-      <c r="AH48" s="11"/>
-      <c r="AI48" s="11"/>
-      <c r="AJ48" s="11"/>
-      <c r="AK48" s="11"/>
-      <c r="AL48" s="11"/>
-      <c r="AM48" s="11"/>
-      <c r="AN48" s="11"/>
-      <c r="AO48" s="11"/>
-      <c r="AP48" s="11"/>
-      <c r="AQ48" s="11"/>
-      <c r="AR48" s="11"/>
-      <c r="AS48" s="11"/>
-      <c r="AT48" s="11"/>
-      <c r="AU48" s="11"/>
-      <c r="AV48" s="11"/>
-      <c r="AW48" s="11"/>
-      <c r="AX48" s="11"/>
-      <c r="AY48" s="11"/>
-      <c r="AZ48" s="11"/>
-      <c r="BA48" s="11"/>
-      <c r="BB48" s="11"/>
-      <c r="BC48" s="11"/>
-      <c r="BD48" s="11"/>
-      <c r="BE48" s="11"/>
-      <c r="BF48" s="11"/>
-      <c r="BG48" s="11"/>
-      <c r="BH48" s="11"/>
-      <c r="BI48" s="11"/>
-      <c r="BJ48" s="11"/>
-      <c r="BK48" s="11"/>
-      <c r="BL48" s="11"/>
-      <c r="AMJ48" s="11"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="10"/>
+      <c r="AA48" s="10"/>
+      <c r="AB48" s="10"/>
+      <c r="AC48" s="10"/>
+      <c r="AD48" s="10"/>
+      <c r="AE48" s="10"/>
+      <c r="AF48" s="10"/>
+      <c r="AG48" s="10"/>
+      <c r="AH48" s="10"/>
+      <c r="AI48" s="10"/>
+      <c r="AJ48" s="10"/>
+      <c r="AK48" s="10"/>
+      <c r="AL48" s="10"/>
+      <c r="AM48" s="10"/>
+      <c r="AN48" s="10"/>
+      <c r="AO48" s="10"/>
+      <c r="AP48" s="10"/>
+      <c r="AQ48" s="10"/>
+      <c r="AR48" s="10"/>
+      <c r="AS48" s="10"/>
+      <c r="AT48" s="10"/>
+      <c r="AU48" s="10"/>
+      <c r="AV48" s="10"/>
+      <c r="AW48" s="10"/>
+      <c r="AX48" s="10"/>
+      <c r="AY48" s="10"/>
+      <c r="AZ48" s="10"/>
+      <c r="BA48" s="10"/>
+      <c r="BB48" s="10"/>
+      <c r="BC48" s="10"/>
+      <c r="BD48" s="10"/>
+      <c r="BE48" s="10"/>
+      <c r="BF48" s="10"/>
+      <c r="BG48" s="10"/>
+      <c r="BH48" s="10"/>
+      <c r="BI48" s="10"/>
+      <c r="BJ48" s="10"/>
+      <c r="BK48" s="10"/>
+      <c r="BL48" s="10"/>
+      <c r="AMJ48" s="10"/>
     </row>
     <row r="49" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
@@ -1771,69 +2313,69 @@
         <v>133</v>
       </c>
       <c r="C49" s="5"/>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11"/>
-      <c r="R49" s="11"/>
-      <c r="S49" s="11"/>
-      <c r="T49" s="11"/>
-      <c r="U49" s="11"/>
-      <c r="V49" s="11"/>
-      <c r="W49" s="11"/>
-      <c r="X49" s="11"/>
-      <c r="Y49" s="11"/>
-      <c r="Z49" s="11"/>
-      <c r="AA49" s="11"/>
-      <c r="AB49" s="11"/>
-      <c r="AC49" s="11"/>
-      <c r="AD49" s="11"/>
-      <c r="AE49" s="11"/>
-      <c r="AF49" s="11"/>
-      <c r="AG49" s="11"/>
-      <c r="AH49" s="11"/>
-      <c r="AI49" s="11"/>
-      <c r="AJ49" s="11"/>
-      <c r="AK49" s="11"/>
-      <c r="AL49" s="11"/>
-      <c r="AM49" s="11"/>
-      <c r="AN49" s="11"/>
-      <c r="AO49" s="11"/>
-      <c r="AP49" s="11"/>
-      <c r="AQ49" s="11"/>
-      <c r="AR49" s="11"/>
-      <c r="AS49" s="11"/>
-      <c r="AT49" s="11"/>
-      <c r="AU49" s="11"/>
-      <c r="AV49" s="11"/>
-      <c r="AW49" s="11"/>
-      <c r="AX49" s="11"/>
-      <c r="AY49" s="11"/>
-      <c r="AZ49" s="11"/>
-      <c r="BA49" s="11"/>
-      <c r="BB49" s="11"/>
-      <c r="BC49" s="11"/>
-      <c r="BD49" s="11"/>
-      <c r="BE49" s="11"/>
-      <c r="BF49" s="11"/>
-      <c r="BG49" s="11"/>
-      <c r="BH49" s="11"/>
-      <c r="BI49" s="11"/>
-      <c r="BJ49" s="11"/>
-      <c r="BK49" s="11"/>
-      <c r="BL49" s="11"/>
-      <c r="AMJ49" s="11"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="10"/>
+      <c r="AA49" s="10"/>
+      <c r="AB49" s="10"/>
+      <c r="AC49" s="10"/>
+      <c r="AD49" s="10"/>
+      <c r="AE49" s="10"/>
+      <c r="AF49" s="10"/>
+      <c r="AG49" s="10"/>
+      <c r="AH49" s="10"/>
+      <c r="AI49" s="10"/>
+      <c r="AJ49" s="10"/>
+      <c r="AK49" s="10"/>
+      <c r="AL49" s="10"/>
+      <c r="AM49" s="10"/>
+      <c r="AN49" s="10"/>
+      <c r="AO49" s="10"/>
+      <c r="AP49" s="10"/>
+      <c r="AQ49" s="10"/>
+      <c r="AR49" s="10"/>
+      <c r="AS49" s="10"/>
+      <c r="AT49" s="10"/>
+      <c r="AU49" s="10"/>
+      <c r="AV49" s="10"/>
+      <c r="AW49" s="10"/>
+      <c r="AX49" s="10"/>
+      <c r="AY49" s="10"/>
+      <c r="AZ49" s="10"/>
+      <c r="BA49" s="10"/>
+      <c r="BB49" s="10"/>
+      <c r="BC49" s="10"/>
+      <c r="BD49" s="10"/>
+      <c r="BE49" s="10"/>
+      <c r="BF49" s="10"/>
+      <c r="BG49" s="10"/>
+      <c r="BH49" s="10"/>
+      <c r="BI49" s="10"/>
+      <c r="BJ49" s="10"/>
+      <c r="BK49" s="10"/>
+      <c r="BL49" s="10"/>
+      <c r="AMJ49" s="10"/>
     </row>
     <row r="50" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
@@ -1843,69 +2385,69 @@
         <v>135</v>
       </c>
       <c r="C50" s="5"/>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11"/>
-      <c r="R50" s="11"/>
-      <c r="S50" s="11"/>
-      <c r="T50" s="11"/>
-      <c r="U50" s="11"/>
-      <c r="V50" s="11"/>
-      <c r="W50" s="11"/>
-      <c r="X50" s="11"/>
-      <c r="Y50" s="11"/>
-      <c r="Z50" s="11"/>
-      <c r="AA50" s="11"/>
-      <c r="AB50" s="11"/>
-      <c r="AC50" s="11"/>
-      <c r="AD50" s="11"/>
-      <c r="AE50" s="11"/>
-      <c r="AF50" s="11"/>
-      <c r="AG50" s="11"/>
-      <c r="AH50" s="11"/>
-      <c r="AI50" s="11"/>
-      <c r="AJ50" s="11"/>
-      <c r="AK50" s="11"/>
-      <c r="AL50" s="11"/>
-      <c r="AM50" s="11"/>
-      <c r="AN50" s="11"/>
-      <c r="AO50" s="11"/>
-      <c r="AP50" s="11"/>
-      <c r="AQ50" s="11"/>
-      <c r="AR50" s="11"/>
-      <c r="AS50" s="11"/>
-      <c r="AT50" s="11"/>
-      <c r="AU50" s="11"/>
-      <c r="AV50" s="11"/>
-      <c r="AW50" s="11"/>
-      <c r="AX50" s="11"/>
-      <c r="AY50" s="11"/>
-      <c r="AZ50" s="11"/>
-      <c r="BA50" s="11"/>
-      <c r="BB50" s="11"/>
-      <c r="BC50" s="11"/>
-      <c r="BD50" s="11"/>
-      <c r="BE50" s="11"/>
-      <c r="BF50" s="11"/>
-      <c r="BG50" s="11"/>
-      <c r="BH50" s="11"/>
-      <c r="BI50" s="11"/>
-      <c r="BJ50" s="11"/>
-      <c r="BK50" s="11"/>
-      <c r="BL50" s="11"/>
-      <c r="AMJ50" s="11"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="10"/>
+      <c r="AA50" s="10"/>
+      <c r="AB50" s="10"/>
+      <c r="AC50" s="10"/>
+      <c r="AD50" s="10"/>
+      <c r="AE50" s="10"/>
+      <c r="AF50" s="10"/>
+      <c r="AG50" s="10"/>
+      <c r="AH50" s="10"/>
+      <c r="AI50" s="10"/>
+      <c r="AJ50" s="10"/>
+      <c r="AK50" s="10"/>
+      <c r="AL50" s="10"/>
+      <c r="AM50" s="10"/>
+      <c r="AN50" s="10"/>
+      <c r="AO50" s="10"/>
+      <c r="AP50" s="10"/>
+      <c r="AQ50" s="10"/>
+      <c r="AR50" s="10"/>
+      <c r="AS50" s="10"/>
+      <c r="AT50" s="10"/>
+      <c r="AU50" s="10"/>
+      <c r="AV50" s="10"/>
+      <c r="AW50" s="10"/>
+      <c r="AX50" s="10"/>
+      <c r="AY50" s="10"/>
+      <c r="AZ50" s="10"/>
+      <c r="BA50" s="10"/>
+      <c r="BB50" s="10"/>
+      <c r="BC50" s="10"/>
+      <c r="BD50" s="10"/>
+      <c r="BE50" s="10"/>
+      <c r="BF50" s="10"/>
+      <c r="BG50" s="10"/>
+      <c r="BH50" s="10"/>
+      <c r="BI50" s="10"/>
+      <c r="BJ50" s="10"/>
+      <c r="BK50" s="10"/>
+      <c r="BL50" s="10"/>
+      <c r="AMJ50" s="10"/>
     </row>
     <row r="51" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
@@ -1915,69 +2457,69 @@
         <v>143</v>
       </c>
       <c r="C51" s="5"/>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="11"/>
-      <c r="R51" s="11"/>
-      <c r="S51" s="11"/>
-      <c r="T51" s="11"/>
-      <c r="U51" s="11"/>
-      <c r="V51" s="11"/>
-      <c r="W51" s="11"/>
-      <c r="X51" s="11"/>
-      <c r="Y51" s="11"/>
-      <c r="Z51" s="11"/>
-      <c r="AA51" s="11"/>
-      <c r="AB51" s="11"/>
-      <c r="AC51" s="11"/>
-      <c r="AD51" s="11"/>
-      <c r="AE51" s="11"/>
-      <c r="AF51" s="11"/>
-      <c r="AG51" s="11"/>
-      <c r="AH51" s="11"/>
-      <c r="AI51" s="11"/>
-      <c r="AJ51" s="11"/>
-      <c r="AK51" s="11"/>
-      <c r="AL51" s="11"/>
-      <c r="AM51" s="11"/>
-      <c r="AN51" s="11"/>
-      <c r="AO51" s="11"/>
-      <c r="AP51" s="11"/>
-      <c r="AQ51" s="11"/>
-      <c r="AR51" s="11"/>
-      <c r="AS51" s="11"/>
-      <c r="AT51" s="11"/>
-      <c r="AU51" s="11"/>
-      <c r="AV51" s="11"/>
-      <c r="AW51" s="11"/>
-      <c r="AX51" s="11"/>
-      <c r="AY51" s="11"/>
-      <c r="AZ51" s="11"/>
-      <c r="BA51" s="11"/>
-      <c r="BB51" s="11"/>
-      <c r="BC51" s="11"/>
-      <c r="BD51" s="11"/>
-      <c r="BE51" s="11"/>
-      <c r="BF51" s="11"/>
-      <c r="BG51" s="11"/>
-      <c r="BH51" s="11"/>
-      <c r="BI51" s="11"/>
-      <c r="BJ51" s="11"/>
-      <c r="BK51" s="11"/>
-      <c r="BL51" s="11"/>
-      <c r="AMJ51" s="11"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="10"/>
+      <c r="Z51" s="10"/>
+      <c r="AA51" s="10"/>
+      <c r="AB51" s="10"/>
+      <c r="AC51" s="10"/>
+      <c r="AD51" s="10"/>
+      <c r="AE51" s="10"/>
+      <c r="AF51" s="10"/>
+      <c r="AG51" s="10"/>
+      <c r="AH51" s="10"/>
+      <c r="AI51" s="10"/>
+      <c r="AJ51" s="10"/>
+      <c r="AK51" s="10"/>
+      <c r="AL51" s="10"/>
+      <c r="AM51" s="10"/>
+      <c r="AN51" s="10"/>
+      <c r="AO51" s="10"/>
+      <c r="AP51" s="10"/>
+      <c r="AQ51" s="10"/>
+      <c r="AR51" s="10"/>
+      <c r="AS51" s="10"/>
+      <c r="AT51" s="10"/>
+      <c r="AU51" s="10"/>
+      <c r="AV51" s="10"/>
+      <c r="AW51" s="10"/>
+      <c r="AX51" s="10"/>
+      <c r="AY51" s="10"/>
+      <c r="AZ51" s="10"/>
+      <c r="BA51" s="10"/>
+      <c r="BB51" s="10"/>
+      <c r="BC51" s="10"/>
+      <c r="BD51" s="10"/>
+      <c r="BE51" s="10"/>
+      <c r="BF51" s="10"/>
+      <c r="BG51" s="10"/>
+      <c r="BH51" s="10"/>
+      <c r="BI51" s="10"/>
+      <c r="BJ51" s="10"/>
+      <c r="BK51" s="10"/>
+      <c r="BL51" s="10"/>
+      <c r="AMJ51" s="10"/>
     </row>
     <row r="52" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
@@ -1987,69 +2529,69 @@
         <v>145</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="11"/>
-      <c r="R52" s="11"/>
-      <c r="S52" s="11"/>
-      <c r="T52" s="11"/>
-      <c r="U52" s="11"/>
-      <c r="V52" s="11"/>
-      <c r="W52" s="11"/>
-      <c r="X52" s="11"/>
-      <c r="Y52" s="11"/>
-      <c r="Z52" s="11"/>
-      <c r="AA52" s="11"/>
-      <c r="AB52" s="11"/>
-      <c r="AC52" s="11"/>
-      <c r="AD52" s="11"/>
-      <c r="AE52" s="11"/>
-      <c r="AF52" s="11"/>
-      <c r="AG52" s="11"/>
-      <c r="AH52" s="11"/>
-      <c r="AI52" s="11"/>
-      <c r="AJ52" s="11"/>
-      <c r="AK52" s="11"/>
-      <c r="AL52" s="11"/>
-      <c r="AM52" s="11"/>
-      <c r="AN52" s="11"/>
-      <c r="AO52" s="11"/>
-      <c r="AP52" s="11"/>
-      <c r="AQ52" s="11"/>
-      <c r="AR52" s="11"/>
-      <c r="AS52" s="11"/>
-      <c r="AT52" s="11"/>
-      <c r="AU52" s="11"/>
-      <c r="AV52" s="11"/>
-      <c r="AW52" s="11"/>
-      <c r="AX52" s="11"/>
-      <c r="AY52" s="11"/>
-      <c r="AZ52" s="11"/>
-      <c r="BA52" s="11"/>
-      <c r="BB52" s="11"/>
-      <c r="BC52" s="11"/>
-      <c r="BD52" s="11"/>
-      <c r="BE52" s="11"/>
-      <c r="BF52" s="11"/>
-      <c r="BG52" s="11"/>
-      <c r="BH52" s="11"/>
-      <c r="BI52" s="11"/>
-      <c r="BJ52" s="11"/>
-      <c r="BK52" s="11"/>
-      <c r="BL52" s="11"/>
-      <c r="AMJ52" s="11"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="10"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="10"/>
+      <c r="Y52" s="10"/>
+      <c r="Z52" s="10"/>
+      <c r="AA52" s="10"/>
+      <c r="AB52" s="10"/>
+      <c r="AC52" s="10"/>
+      <c r="AD52" s="10"/>
+      <c r="AE52" s="10"/>
+      <c r="AF52" s="10"/>
+      <c r="AG52" s="10"/>
+      <c r="AH52" s="10"/>
+      <c r="AI52" s="10"/>
+      <c r="AJ52" s="10"/>
+      <c r="AK52" s="10"/>
+      <c r="AL52" s="10"/>
+      <c r="AM52" s="10"/>
+      <c r="AN52" s="10"/>
+      <c r="AO52" s="10"/>
+      <c r="AP52" s="10"/>
+      <c r="AQ52" s="10"/>
+      <c r="AR52" s="10"/>
+      <c r="AS52" s="10"/>
+      <c r="AT52" s="10"/>
+      <c r="AU52" s="10"/>
+      <c r="AV52" s="10"/>
+      <c r="AW52" s="10"/>
+      <c r="AX52" s="10"/>
+      <c r="AY52" s="10"/>
+      <c r="AZ52" s="10"/>
+      <c r="BA52" s="10"/>
+      <c r="BB52" s="10"/>
+      <c r="BC52" s="10"/>
+      <c r="BD52" s="10"/>
+      <c r="BE52" s="10"/>
+      <c r="BF52" s="10"/>
+      <c r="BG52" s="10"/>
+      <c r="BH52" s="10"/>
+      <c r="BI52" s="10"/>
+      <c r="BJ52" s="10"/>
+      <c r="BK52" s="10"/>
+      <c r="BL52" s="10"/>
+      <c r="AMJ52" s="10"/>
     </row>
     <row r="53" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
@@ -2064,67 +2606,67 @@
       <c r="D53" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11"/>
-      <c r="V53" s="11"/>
-      <c r="W53" s="11"/>
-      <c r="X53" s="11"/>
-      <c r="Y53" s="11"/>
-      <c r="Z53" s="11"/>
-      <c r="AA53" s="11"/>
-      <c r="AB53" s="11"/>
-      <c r="AC53" s="11"/>
-      <c r="AD53" s="11"/>
-      <c r="AE53" s="11"/>
-      <c r="AF53" s="11"/>
-      <c r="AG53" s="11"/>
-      <c r="AH53" s="11"/>
-      <c r="AI53" s="11"/>
-      <c r="AJ53" s="11"/>
-      <c r="AK53" s="11"/>
-      <c r="AL53" s="11"/>
-      <c r="AM53" s="11"/>
-      <c r="AN53" s="11"/>
-      <c r="AO53" s="11"/>
-      <c r="AP53" s="11"/>
-      <c r="AQ53" s="11"/>
-      <c r="AR53" s="11"/>
-      <c r="AS53" s="11"/>
-      <c r="AT53" s="11"/>
-      <c r="AU53" s="11"/>
-      <c r="AV53" s="11"/>
-      <c r="AW53" s="11"/>
-      <c r="AX53" s="11"/>
-      <c r="AY53" s="11"/>
-      <c r="AZ53" s="11"/>
-      <c r="BA53" s="11"/>
-      <c r="BB53" s="11"/>
-      <c r="BC53" s="11"/>
-      <c r="BD53" s="11"/>
-      <c r="BE53" s="11"/>
-      <c r="BF53" s="11"/>
-      <c r="BG53" s="11"/>
-      <c r="BH53" s="11"/>
-      <c r="BI53" s="11"/>
-      <c r="BJ53" s="11"/>
-      <c r="BK53" s="11"/>
-      <c r="BL53" s="11"/>
-      <c r="AMJ53" s="11"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="10"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="10"/>
+      <c r="Y53" s="10"/>
+      <c r="Z53" s="10"/>
+      <c r="AA53" s="10"/>
+      <c r="AB53" s="10"/>
+      <c r="AC53" s="10"/>
+      <c r="AD53" s="10"/>
+      <c r="AE53" s="10"/>
+      <c r="AF53" s="10"/>
+      <c r="AG53" s="10"/>
+      <c r="AH53" s="10"/>
+      <c r="AI53" s="10"/>
+      <c r="AJ53" s="10"/>
+      <c r="AK53" s="10"/>
+      <c r="AL53" s="10"/>
+      <c r="AM53" s="10"/>
+      <c r="AN53" s="10"/>
+      <c r="AO53" s="10"/>
+      <c r="AP53" s="10"/>
+      <c r="AQ53" s="10"/>
+      <c r="AR53" s="10"/>
+      <c r="AS53" s="10"/>
+      <c r="AT53" s="10"/>
+      <c r="AU53" s="10"/>
+      <c r="AV53" s="10"/>
+      <c r="AW53" s="10"/>
+      <c r="AX53" s="10"/>
+      <c r="AY53" s="10"/>
+      <c r="AZ53" s="10"/>
+      <c r="BA53" s="10"/>
+      <c r="BB53" s="10"/>
+      <c r="BC53" s="10"/>
+      <c r="BD53" s="10"/>
+      <c r="BE53" s="10"/>
+      <c r="BF53" s="10"/>
+      <c r="BG53" s="10"/>
+      <c r="BH53" s="10"/>
+      <c r="BI53" s="10"/>
+      <c r="BJ53" s="10"/>
+      <c r="BK53" s="10"/>
+      <c r="BL53" s="10"/>
+      <c r="AMJ53" s="10"/>
     </row>
     <row r="54" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
@@ -2137,67 +2679,67 @@
       <c r="D54" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11"/>
-      <c r="U54" s="11"/>
-      <c r="V54" s="11"/>
-      <c r="W54" s="11"/>
-      <c r="X54" s="11"/>
-      <c r="Y54" s="11"/>
-      <c r="Z54" s="11"/>
-      <c r="AA54" s="11"/>
-      <c r="AB54" s="11"/>
-      <c r="AC54" s="11"/>
-      <c r="AD54" s="11"/>
-      <c r="AE54" s="11"/>
-      <c r="AF54" s="11"/>
-      <c r="AG54" s="11"/>
-      <c r="AH54" s="11"/>
-      <c r="AI54" s="11"/>
-      <c r="AJ54" s="11"/>
-      <c r="AK54" s="11"/>
-      <c r="AL54" s="11"/>
-      <c r="AM54" s="11"/>
-      <c r="AN54" s="11"/>
-      <c r="AO54" s="11"/>
-      <c r="AP54" s="11"/>
-      <c r="AQ54" s="11"/>
-      <c r="AR54" s="11"/>
-      <c r="AS54" s="11"/>
-      <c r="AT54" s="11"/>
-      <c r="AU54" s="11"/>
-      <c r="AV54" s="11"/>
-      <c r="AW54" s="11"/>
-      <c r="AX54" s="11"/>
-      <c r="AY54" s="11"/>
-      <c r="AZ54" s="11"/>
-      <c r="BA54" s="11"/>
-      <c r="BB54" s="11"/>
-      <c r="BC54" s="11"/>
-      <c r="BD54" s="11"/>
-      <c r="BE54" s="11"/>
-      <c r="BF54" s="11"/>
-      <c r="BG54" s="11"/>
-      <c r="BH54" s="11"/>
-      <c r="BI54" s="11"/>
-      <c r="BJ54" s="11"/>
-      <c r="BK54" s="11"/>
-      <c r="BL54" s="11"/>
-      <c r="AMJ54" s="11"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="10"/>
+      <c r="V54" s="10"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="10"/>
+      <c r="Y54" s="10"/>
+      <c r="Z54" s="10"/>
+      <c r="AA54" s="10"/>
+      <c r="AB54" s="10"/>
+      <c r="AC54" s="10"/>
+      <c r="AD54" s="10"/>
+      <c r="AE54" s="10"/>
+      <c r="AF54" s="10"/>
+      <c r="AG54" s="10"/>
+      <c r="AH54" s="10"/>
+      <c r="AI54" s="10"/>
+      <c r="AJ54" s="10"/>
+      <c r="AK54" s="10"/>
+      <c r="AL54" s="10"/>
+      <c r="AM54" s="10"/>
+      <c r="AN54" s="10"/>
+      <c r="AO54" s="10"/>
+      <c r="AP54" s="10"/>
+      <c r="AQ54" s="10"/>
+      <c r="AR54" s="10"/>
+      <c r="AS54" s="10"/>
+      <c r="AT54" s="10"/>
+      <c r="AU54" s="10"/>
+      <c r="AV54" s="10"/>
+      <c r="AW54" s="10"/>
+      <c r="AX54" s="10"/>
+      <c r="AY54" s="10"/>
+      <c r="AZ54" s="10"/>
+      <c r="BA54" s="10"/>
+      <c r="BB54" s="10"/>
+      <c r="BC54" s="10"/>
+      <c r="BD54" s="10"/>
+      <c r="BE54" s="10"/>
+      <c r="BF54" s="10"/>
+      <c r="BG54" s="10"/>
+      <c r="BH54" s="10"/>
+      <c r="BI54" s="10"/>
+      <c r="BJ54" s="10"/>
+      <c r="BK54" s="10"/>
+      <c r="BL54" s="10"/>
+      <c r="AMJ54" s="10"/>
     </row>
     <row r="55" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
@@ -2207,69 +2749,69 @@
         <v>151</v>
       </c>
       <c r="C55" s="5"/>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="11"/>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="11"/>
-      <c r="R55" s="11"/>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11"/>
-      <c r="U55" s="11"/>
-      <c r="V55" s="11"/>
-      <c r="W55" s="11"/>
-      <c r="X55" s="11"/>
-      <c r="Y55" s="11"/>
-      <c r="Z55" s="11"/>
-      <c r="AA55" s="11"/>
-      <c r="AB55" s="11"/>
-      <c r="AC55" s="11"/>
-      <c r="AD55" s="11"/>
-      <c r="AE55" s="11"/>
-      <c r="AF55" s="11"/>
-      <c r="AG55" s="11"/>
-      <c r="AH55" s="11"/>
-      <c r="AI55" s="11"/>
-      <c r="AJ55" s="11"/>
-      <c r="AK55" s="11"/>
-      <c r="AL55" s="11"/>
-      <c r="AM55" s="11"/>
-      <c r="AN55" s="11"/>
-      <c r="AO55" s="11"/>
-      <c r="AP55" s="11"/>
-      <c r="AQ55" s="11"/>
-      <c r="AR55" s="11"/>
-      <c r="AS55" s="11"/>
-      <c r="AT55" s="11"/>
-      <c r="AU55" s="11"/>
-      <c r="AV55" s="11"/>
-      <c r="AW55" s="11"/>
-      <c r="AX55" s="11"/>
-      <c r="AY55" s="11"/>
-      <c r="AZ55" s="11"/>
-      <c r="BA55" s="11"/>
-      <c r="BB55" s="11"/>
-      <c r="BC55" s="11"/>
-      <c r="BD55" s="11"/>
-      <c r="BE55" s="11"/>
-      <c r="BF55" s="11"/>
-      <c r="BG55" s="11"/>
-      <c r="BH55" s="11"/>
-      <c r="BI55" s="11"/>
-      <c r="BJ55" s="11"/>
-      <c r="BK55" s="11"/>
-      <c r="BL55" s="11"/>
-      <c r="AMJ55" s="11"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="10"/>
+      <c r="W55" s="10"/>
+      <c r="X55" s="10"/>
+      <c r="Y55" s="10"/>
+      <c r="Z55" s="10"/>
+      <c r="AA55" s="10"/>
+      <c r="AB55" s="10"/>
+      <c r="AC55" s="10"/>
+      <c r="AD55" s="10"/>
+      <c r="AE55" s="10"/>
+      <c r="AF55" s="10"/>
+      <c r="AG55" s="10"/>
+      <c r="AH55" s="10"/>
+      <c r="AI55" s="10"/>
+      <c r="AJ55" s="10"/>
+      <c r="AK55" s="10"/>
+      <c r="AL55" s="10"/>
+      <c r="AM55" s="10"/>
+      <c r="AN55" s="10"/>
+      <c r="AO55" s="10"/>
+      <c r="AP55" s="10"/>
+      <c r="AQ55" s="10"/>
+      <c r="AR55" s="10"/>
+      <c r="AS55" s="10"/>
+      <c r="AT55" s="10"/>
+      <c r="AU55" s="10"/>
+      <c r="AV55" s="10"/>
+      <c r="AW55" s="10"/>
+      <c r="AX55" s="10"/>
+      <c r="AY55" s="10"/>
+      <c r="AZ55" s="10"/>
+      <c r="BA55" s="10"/>
+      <c r="BB55" s="10"/>
+      <c r="BC55" s="10"/>
+      <c r="BD55" s="10"/>
+      <c r="BE55" s="10"/>
+      <c r="BF55" s="10"/>
+      <c r="BG55" s="10"/>
+      <c r="BH55" s="10"/>
+      <c r="BI55" s="10"/>
+      <c r="BJ55" s="10"/>
+      <c r="BK55" s="10"/>
+      <c r="BL55" s="10"/>
+      <c r="AMJ55" s="10"/>
     </row>
     <row r="56" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
@@ -2279,69 +2821,69 @@
         <v>153</v>
       </c>
       <c r="C56" s="5"/>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
-      <c r="M56" s="11"/>
-      <c r="N56" s="11"/>
-      <c r="O56" s="11"/>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="11"/>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11"/>
-      <c r="U56" s="11"/>
-      <c r="V56" s="11"/>
-      <c r="W56" s="11"/>
-      <c r="X56" s="11"/>
-      <c r="Y56" s="11"/>
-      <c r="Z56" s="11"/>
-      <c r="AA56" s="11"/>
-      <c r="AB56" s="11"/>
-      <c r="AC56" s="11"/>
-      <c r="AD56" s="11"/>
-      <c r="AE56" s="11"/>
-      <c r="AF56" s="11"/>
-      <c r="AG56" s="11"/>
-      <c r="AH56" s="11"/>
-      <c r="AI56" s="11"/>
-      <c r="AJ56" s="11"/>
-      <c r="AK56" s="11"/>
-      <c r="AL56" s="11"/>
-      <c r="AM56" s="11"/>
-      <c r="AN56" s="11"/>
-      <c r="AO56" s="11"/>
-      <c r="AP56" s="11"/>
-      <c r="AQ56" s="11"/>
-      <c r="AR56" s="11"/>
-      <c r="AS56" s="11"/>
-      <c r="AT56" s="11"/>
-      <c r="AU56" s="11"/>
-      <c r="AV56" s="11"/>
-      <c r="AW56" s="11"/>
-      <c r="AX56" s="11"/>
-      <c r="AY56" s="11"/>
-      <c r="AZ56" s="11"/>
-      <c r="BA56" s="11"/>
-      <c r="BB56" s="11"/>
-      <c r="BC56" s="11"/>
-      <c r="BD56" s="11"/>
-      <c r="BE56" s="11"/>
-      <c r="BF56" s="11"/>
-      <c r="BG56" s="11"/>
-      <c r="BH56" s="11"/>
-      <c r="BI56" s="11"/>
-      <c r="BJ56" s="11"/>
-      <c r="BK56" s="11"/>
-      <c r="BL56" s="11"/>
-      <c r="AMJ56" s="11"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="10"/>
+      <c r="V56" s="10"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="10"/>
+      <c r="Y56" s="10"/>
+      <c r="Z56" s="10"/>
+      <c r="AA56" s="10"/>
+      <c r="AB56" s="10"/>
+      <c r="AC56" s="10"/>
+      <c r="AD56" s="10"/>
+      <c r="AE56" s="10"/>
+      <c r="AF56" s="10"/>
+      <c r="AG56" s="10"/>
+      <c r="AH56" s="10"/>
+      <c r="AI56" s="10"/>
+      <c r="AJ56" s="10"/>
+      <c r="AK56" s="10"/>
+      <c r="AL56" s="10"/>
+      <c r="AM56" s="10"/>
+      <c r="AN56" s="10"/>
+      <c r="AO56" s="10"/>
+      <c r="AP56" s="10"/>
+      <c r="AQ56" s="10"/>
+      <c r="AR56" s="10"/>
+      <c r="AS56" s="10"/>
+      <c r="AT56" s="10"/>
+      <c r="AU56" s="10"/>
+      <c r="AV56" s="10"/>
+      <c r="AW56" s="10"/>
+      <c r="AX56" s="10"/>
+      <c r="AY56" s="10"/>
+      <c r="AZ56" s="10"/>
+      <c r="BA56" s="10"/>
+      <c r="BB56" s="10"/>
+      <c r="BC56" s="10"/>
+      <c r="BD56" s="10"/>
+      <c r="BE56" s="10"/>
+      <c r="BF56" s="10"/>
+      <c r="BG56" s="10"/>
+      <c r="BH56" s="10"/>
+      <c r="BI56" s="10"/>
+      <c r="BJ56" s="10"/>
+      <c r="BK56" s="10"/>
+      <c r="BL56" s="10"/>
+      <c r="AMJ56" s="10"/>
     </row>
     <row r="57" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
@@ -2351,69 +2893,69 @@
         <v>155</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="11"/>
-      <c r="S57" s="11"/>
-      <c r="T57" s="11"/>
-      <c r="U57" s="11"/>
-      <c r="V57" s="11"/>
-      <c r="W57" s="11"/>
-      <c r="X57" s="11"/>
-      <c r="Y57" s="11"/>
-      <c r="Z57" s="11"/>
-      <c r="AA57" s="11"/>
-      <c r="AB57" s="11"/>
-      <c r="AC57" s="11"/>
-      <c r="AD57" s="11"/>
-      <c r="AE57" s="11"/>
-      <c r="AF57" s="11"/>
-      <c r="AG57" s="11"/>
-      <c r="AH57" s="11"/>
-      <c r="AI57" s="11"/>
-      <c r="AJ57" s="11"/>
-      <c r="AK57" s="11"/>
-      <c r="AL57" s="11"/>
-      <c r="AM57" s="11"/>
-      <c r="AN57" s="11"/>
-      <c r="AO57" s="11"/>
-      <c r="AP57" s="11"/>
-      <c r="AQ57" s="11"/>
-      <c r="AR57" s="11"/>
-      <c r="AS57" s="11"/>
-      <c r="AT57" s="11"/>
-      <c r="AU57" s="11"/>
-      <c r="AV57" s="11"/>
-      <c r="AW57" s="11"/>
-      <c r="AX57" s="11"/>
-      <c r="AY57" s="11"/>
-      <c r="AZ57" s="11"/>
-      <c r="BA57" s="11"/>
-      <c r="BB57" s="11"/>
-      <c r="BC57" s="11"/>
-      <c r="BD57" s="11"/>
-      <c r="BE57" s="11"/>
-      <c r="BF57" s="11"/>
-      <c r="BG57" s="11"/>
-      <c r="BH57" s="11"/>
-      <c r="BI57" s="11"/>
-      <c r="BJ57" s="11"/>
-      <c r="BK57" s="11"/>
-      <c r="BL57" s="11"/>
-      <c r="AMJ57" s="11"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="10"/>
+      <c r="W57" s="10"/>
+      <c r="X57" s="10"/>
+      <c r="Y57" s="10"/>
+      <c r="Z57" s="10"/>
+      <c r="AA57" s="10"/>
+      <c r="AB57" s="10"/>
+      <c r="AC57" s="10"/>
+      <c r="AD57" s="10"/>
+      <c r="AE57" s="10"/>
+      <c r="AF57" s="10"/>
+      <c r="AG57" s="10"/>
+      <c r="AH57" s="10"/>
+      <c r="AI57" s="10"/>
+      <c r="AJ57" s="10"/>
+      <c r="AK57" s="10"/>
+      <c r="AL57" s="10"/>
+      <c r="AM57" s="10"/>
+      <c r="AN57" s="10"/>
+      <c r="AO57" s="10"/>
+      <c r="AP57" s="10"/>
+      <c r="AQ57" s="10"/>
+      <c r="AR57" s="10"/>
+      <c r="AS57" s="10"/>
+      <c r="AT57" s="10"/>
+      <c r="AU57" s="10"/>
+      <c r="AV57" s="10"/>
+      <c r="AW57" s="10"/>
+      <c r="AX57" s="10"/>
+      <c r="AY57" s="10"/>
+      <c r="AZ57" s="10"/>
+      <c r="BA57" s="10"/>
+      <c r="BB57" s="10"/>
+      <c r="BC57" s="10"/>
+      <c r="BD57" s="10"/>
+      <c r="BE57" s="10"/>
+      <c r="BF57" s="10"/>
+      <c r="BG57" s="10"/>
+      <c r="BH57" s="10"/>
+      <c r="BI57" s="10"/>
+      <c r="BJ57" s="10"/>
+      <c r="BK57" s="10"/>
+      <c r="BL57" s="10"/>
+      <c r="AMJ57" s="10"/>
     </row>
     <row r="58" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
@@ -2423,69 +2965,69 @@
         <v>157</v>
       </c>
       <c r="C58" s="5"/>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="11"/>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11"/>
-      <c r="U58" s="11"/>
-      <c r="V58" s="11"/>
-      <c r="W58" s="11"/>
-      <c r="X58" s="11"/>
-      <c r="Y58" s="11"/>
-      <c r="Z58" s="11"/>
-      <c r="AA58" s="11"/>
-      <c r="AB58" s="11"/>
-      <c r="AC58" s="11"/>
-      <c r="AD58" s="11"/>
-      <c r="AE58" s="11"/>
-      <c r="AF58" s="11"/>
-      <c r="AG58" s="11"/>
-      <c r="AH58" s="11"/>
-      <c r="AI58" s="11"/>
-      <c r="AJ58" s="11"/>
-      <c r="AK58" s="11"/>
-      <c r="AL58" s="11"/>
-      <c r="AM58" s="11"/>
-      <c r="AN58" s="11"/>
-      <c r="AO58" s="11"/>
-      <c r="AP58" s="11"/>
-      <c r="AQ58" s="11"/>
-      <c r="AR58" s="11"/>
-      <c r="AS58" s="11"/>
-      <c r="AT58" s="11"/>
-      <c r="AU58" s="11"/>
-      <c r="AV58" s="11"/>
-      <c r="AW58" s="11"/>
-      <c r="AX58" s="11"/>
-      <c r="AY58" s="11"/>
-      <c r="AZ58" s="11"/>
-      <c r="BA58" s="11"/>
-      <c r="BB58" s="11"/>
-      <c r="BC58" s="11"/>
-      <c r="BD58" s="11"/>
-      <c r="BE58" s="11"/>
-      <c r="BF58" s="11"/>
-      <c r="BG58" s="11"/>
-      <c r="BH58" s="11"/>
-      <c r="BI58" s="11"/>
-      <c r="BJ58" s="11"/>
-      <c r="BK58" s="11"/>
-      <c r="BL58" s="11"/>
-      <c r="AMJ58" s="11"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="10"/>
+      <c r="Y58" s="10"/>
+      <c r="Z58" s="10"/>
+      <c r="AA58" s="10"/>
+      <c r="AB58" s="10"/>
+      <c r="AC58" s="10"/>
+      <c r="AD58" s="10"/>
+      <c r="AE58" s="10"/>
+      <c r="AF58" s="10"/>
+      <c r="AG58" s="10"/>
+      <c r="AH58" s="10"/>
+      <c r="AI58" s="10"/>
+      <c r="AJ58" s="10"/>
+      <c r="AK58" s="10"/>
+      <c r="AL58" s="10"/>
+      <c r="AM58" s="10"/>
+      <c r="AN58" s="10"/>
+      <c r="AO58" s="10"/>
+      <c r="AP58" s="10"/>
+      <c r="AQ58" s="10"/>
+      <c r="AR58" s="10"/>
+      <c r="AS58" s="10"/>
+      <c r="AT58" s="10"/>
+      <c r="AU58" s="10"/>
+      <c r="AV58" s="10"/>
+      <c r="AW58" s="10"/>
+      <c r="AX58" s="10"/>
+      <c r="AY58" s="10"/>
+      <c r="AZ58" s="10"/>
+      <c r="BA58" s="10"/>
+      <c r="BB58" s="10"/>
+      <c r="BC58" s="10"/>
+      <c r="BD58" s="10"/>
+      <c r="BE58" s="10"/>
+      <c r="BF58" s="10"/>
+      <c r="BG58" s="10"/>
+      <c r="BH58" s="10"/>
+      <c r="BI58" s="10"/>
+      <c r="BJ58" s="10"/>
+      <c r="BK58" s="10"/>
+      <c r="BL58" s="10"/>
+      <c r="AMJ58" s="10"/>
     </row>
     <row r="59" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
@@ -2495,69 +3037,69 @@
         <v>159</v>
       </c>
       <c r="C59" s="5"/>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="11"/>
-      <c r="M59" s="11"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="11"/>
-      <c r="R59" s="11"/>
-      <c r="S59" s="11"/>
-      <c r="T59" s="11"/>
-      <c r="U59" s="11"/>
-      <c r="V59" s="11"/>
-      <c r="W59" s="11"/>
-      <c r="X59" s="11"/>
-      <c r="Y59" s="11"/>
-      <c r="Z59" s="11"/>
-      <c r="AA59" s="11"/>
-      <c r="AB59" s="11"/>
-      <c r="AC59" s="11"/>
-      <c r="AD59" s="11"/>
-      <c r="AE59" s="11"/>
-      <c r="AF59" s="11"/>
-      <c r="AG59" s="11"/>
-      <c r="AH59" s="11"/>
-      <c r="AI59" s="11"/>
-      <c r="AJ59" s="11"/>
-      <c r="AK59" s="11"/>
-      <c r="AL59" s="11"/>
-      <c r="AM59" s="11"/>
-      <c r="AN59" s="11"/>
-      <c r="AO59" s="11"/>
-      <c r="AP59" s="11"/>
-      <c r="AQ59" s="11"/>
-      <c r="AR59" s="11"/>
-      <c r="AS59" s="11"/>
-      <c r="AT59" s="11"/>
-      <c r="AU59" s="11"/>
-      <c r="AV59" s="11"/>
-      <c r="AW59" s="11"/>
-      <c r="AX59" s="11"/>
-      <c r="AY59" s="11"/>
-      <c r="AZ59" s="11"/>
-      <c r="BA59" s="11"/>
-      <c r="BB59" s="11"/>
-      <c r="BC59" s="11"/>
-      <c r="BD59" s="11"/>
-      <c r="BE59" s="11"/>
-      <c r="BF59" s="11"/>
-      <c r="BG59" s="11"/>
-      <c r="BH59" s="11"/>
-      <c r="BI59" s="11"/>
-      <c r="BJ59" s="11"/>
-      <c r="BK59" s="11"/>
-      <c r="BL59" s="11"/>
-      <c r="AMJ59" s="11"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="10"/>
+      <c r="V59" s="10"/>
+      <c r="W59" s="10"/>
+      <c r="X59" s="10"/>
+      <c r="Y59" s="10"/>
+      <c r="Z59" s="10"/>
+      <c r="AA59" s="10"/>
+      <c r="AB59" s="10"/>
+      <c r="AC59" s="10"/>
+      <c r="AD59" s="10"/>
+      <c r="AE59" s="10"/>
+      <c r="AF59" s="10"/>
+      <c r="AG59" s="10"/>
+      <c r="AH59" s="10"/>
+      <c r="AI59" s="10"/>
+      <c r="AJ59" s="10"/>
+      <c r="AK59" s="10"/>
+      <c r="AL59" s="10"/>
+      <c r="AM59" s="10"/>
+      <c r="AN59" s="10"/>
+      <c r="AO59" s="10"/>
+      <c r="AP59" s="10"/>
+      <c r="AQ59" s="10"/>
+      <c r="AR59" s="10"/>
+      <c r="AS59" s="10"/>
+      <c r="AT59" s="10"/>
+      <c r="AU59" s="10"/>
+      <c r="AV59" s="10"/>
+      <c r="AW59" s="10"/>
+      <c r="AX59" s="10"/>
+      <c r="AY59" s="10"/>
+      <c r="AZ59" s="10"/>
+      <c r="BA59" s="10"/>
+      <c r="BB59" s="10"/>
+      <c r="BC59" s="10"/>
+      <c r="BD59" s="10"/>
+      <c r="BE59" s="10"/>
+      <c r="BF59" s="10"/>
+      <c r="BG59" s="10"/>
+      <c r="BH59" s="10"/>
+      <c r="BI59" s="10"/>
+      <c r="BJ59" s="10"/>
+      <c r="BK59" s="10"/>
+      <c r="BL59" s="10"/>
+      <c r="AMJ59" s="10"/>
     </row>
     <row r="60" s="2" customFormat="true" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
@@ -2567,69 +3109,69 @@
         <v>162</v>
       </c>
       <c r="C60" s="5"/>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="11"/>
-      <c r="R60" s="11"/>
-      <c r="S60" s="11"/>
-      <c r="T60" s="11"/>
-      <c r="U60" s="11"/>
-      <c r="V60" s="11"/>
-      <c r="W60" s="11"/>
-      <c r="X60" s="11"/>
-      <c r="Y60" s="11"/>
-      <c r="Z60" s="11"/>
-      <c r="AA60" s="11"/>
-      <c r="AB60" s="11"/>
-      <c r="AC60" s="11"/>
-      <c r="AD60" s="11"/>
-      <c r="AE60" s="11"/>
-      <c r="AF60" s="11"/>
-      <c r="AG60" s="11"/>
-      <c r="AH60" s="11"/>
-      <c r="AI60" s="11"/>
-      <c r="AJ60" s="11"/>
-      <c r="AK60" s="11"/>
-      <c r="AL60" s="11"/>
-      <c r="AM60" s="11"/>
-      <c r="AN60" s="11"/>
-      <c r="AO60" s="11"/>
-      <c r="AP60" s="11"/>
-      <c r="AQ60" s="11"/>
-      <c r="AR60" s="11"/>
-      <c r="AS60" s="11"/>
-      <c r="AT60" s="11"/>
-      <c r="AU60" s="11"/>
-      <c r="AV60" s="11"/>
-      <c r="AW60" s="11"/>
-      <c r="AX60" s="11"/>
-      <c r="AY60" s="11"/>
-      <c r="AZ60" s="11"/>
-      <c r="BA60" s="11"/>
-      <c r="BB60" s="11"/>
-      <c r="BC60" s="11"/>
-      <c r="BD60" s="11"/>
-      <c r="BE60" s="11"/>
-      <c r="BF60" s="11"/>
-      <c r="BG60" s="11"/>
-      <c r="BH60" s="11"/>
-      <c r="BI60" s="11"/>
-      <c r="BJ60" s="11"/>
-      <c r="BK60" s="11"/>
-      <c r="BL60" s="11"/>
-      <c r="AMJ60" s="11"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
+      <c r="V60" s="10"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="10"/>
+      <c r="Y60" s="10"/>
+      <c r="Z60" s="10"/>
+      <c r="AA60" s="10"/>
+      <c r="AB60" s="10"/>
+      <c r="AC60" s="10"/>
+      <c r="AD60" s="10"/>
+      <c r="AE60" s="10"/>
+      <c r="AF60" s="10"/>
+      <c r="AG60" s="10"/>
+      <c r="AH60" s="10"/>
+      <c r="AI60" s="10"/>
+      <c r="AJ60" s="10"/>
+      <c r="AK60" s="10"/>
+      <c r="AL60" s="10"/>
+      <c r="AM60" s="10"/>
+      <c r="AN60" s="10"/>
+      <c r="AO60" s="10"/>
+      <c r="AP60" s="10"/>
+      <c r="AQ60" s="10"/>
+      <c r="AR60" s="10"/>
+      <c r="AS60" s="10"/>
+      <c r="AT60" s="10"/>
+      <c r="AU60" s="10"/>
+      <c r="AV60" s="10"/>
+      <c r="AW60" s="10"/>
+      <c r="AX60" s="10"/>
+      <c r="AY60" s="10"/>
+      <c r="AZ60" s="10"/>
+      <c r="BA60" s="10"/>
+      <c r="BB60" s="10"/>
+      <c r="BC60" s="10"/>
+      <c r="BD60" s="10"/>
+      <c r="BE60" s="10"/>
+      <c r="BF60" s="10"/>
+      <c r="BG60" s="10"/>
+      <c r="BH60" s="10"/>
+      <c r="BI60" s="10"/>
+      <c r="BJ60" s="10"/>
+      <c r="BK60" s="10"/>
+      <c r="BL60" s="10"/>
+      <c r="AMJ60" s="10"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
@@ -2661,69 +3203,69 @@
         <v>170</v>
       </c>
       <c r="C63" s="5"/>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="11"/>
-      <c r="N63" s="11"/>
-      <c r="O63" s="11"/>
-      <c r="P63" s="11"/>
-      <c r="Q63" s="11"/>
-      <c r="R63" s="11"/>
-      <c r="S63" s="11"/>
-      <c r="T63" s="11"/>
-      <c r="U63" s="11"/>
-      <c r="V63" s="11"/>
-      <c r="W63" s="11"/>
-      <c r="X63" s="11"/>
-      <c r="Y63" s="11"/>
-      <c r="Z63" s="11"/>
-      <c r="AA63" s="11"/>
-      <c r="AB63" s="11"/>
-      <c r="AC63" s="11"/>
-      <c r="AD63" s="11"/>
-      <c r="AE63" s="11"/>
-      <c r="AF63" s="11"/>
-      <c r="AG63" s="11"/>
-      <c r="AH63" s="11"/>
-      <c r="AI63" s="11"/>
-      <c r="AJ63" s="11"/>
-      <c r="AK63" s="11"/>
-      <c r="AL63" s="11"/>
-      <c r="AM63" s="11"/>
-      <c r="AN63" s="11"/>
-      <c r="AO63" s="11"/>
-      <c r="AP63" s="11"/>
-      <c r="AQ63" s="11"/>
-      <c r="AR63" s="11"/>
-      <c r="AS63" s="11"/>
-      <c r="AT63" s="11"/>
-      <c r="AU63" s="11"/>
-      <c r="AV63" s="11"/>
-      <c r="AW63" s="11"/>
-      <c r="AX63" s="11"/>
-      <c r="AY63" s="11"/>
-      <c r="AZ63" s="11"/>
-      <c r="BA63" s="11"/>
-      <c r="BB63" s="11"/>
-      <c r="BC63" s="11"/>
-      <c r="BD63" s="11"/>
-      <c r="BE63" s="11"/>
-      <c r="BF63" s="11"/>
-      <c r="BG63" s="11"/>
-      <c r="BH63" s="11"/>
-      <c r="BI63" s="11"/>
-      <c r="BJ63" s="11"/>
-      <c r="BK63" s="11"/>
-      <c r="BL63" s="11"/>
-      <c r="AMJ63" s="11"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="10"/>
+      <c r="R63" s="10"/>
+      <c r="S63" s="10"/>
+      <c r="T63" s="10"/>
+      <c r="U63" s="10"/>
+      <c r="V63" s="10"/>
+      <c r="W63" s="10"/>
+      <c r="X63" s="10"/>
+      <c r="Y63" s="10"/>
+      <c r="Z63" s="10"/>
+      <c r="AA63" s="10"/>
+      <c r="AB63" s="10"/>
+      <c r="AC63" s="10"/>
+      <c r="AD63" s="10"/>
+      <c r="AE63" s="10"/>
+      <c r="AF63" s="10"/>
+      <c r="AG63" s="10"/>
+      <c r="AH63" s="10"/>
+      <c r="AI63" s="10"/>
+      <c r="AJ63" s="10"/>
+      <c r="AK63" s="10"/>
+      <c r="AL63" s="10"/>
+      <c r="AM63" s="10"/>
+      <c r="AN63" s="10"/>
+      <c r="AO63" s="10"/>
+      <c r="AP63" s="10"/>
+      <c r="AQ63" s="10"/>
+      <c r="AR63" s="10"/>
+      <c r="AS63" s="10"/>
+      <c r="AT63" s="10"/>
+      <c r="AU63" s="10"/>
+      <c r="AV63" s="10"/>
+      <c r="AW63" s="10"/>
+      <c r="AX63" s="10"/>
+      <c r="AY63" s="10"/>
+      <c r="AZ63" s="10"/>
+      <c r="BA63" s="10"/>
+      <c r="BB63" s="10"/>
+      <c r="BC63" s="10"/>
+      <c r="BD63" s="10"/>
+      <c r="BE63" s="10"/>
+      <c r="BF63" s="10"/>
+      <c r="BG63" s="10"/>
+      <c r="BH63" s="10"/>
+      <c r="BI63" s="10"/>
+      <c r="BJ63" s="10"/>
+      <c r="BK63" s="10"/>
+      <c r="BL63" s="10"/>
+      <c r="AMJ63" s="10"/>
     </row>
     <row r="64" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
@@ -2733,69 +3275,69 @@
         <v>173</v>
       </c>
       <c r="C64" s="5"/>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
-      <c r="M64" s="11"/>
-      <c r="N64" s="11"/>
-      <c r="O64" s="11"/>
-      <c r="P64" s="11"/>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="11"/>
-      <c r="S64" s="11"/>
-      <c r="T64" s="11"/>
-      <c r="U64" s="11"/>
-      <c r="V64" s="11"/>
-      <c r="W64" s="11"/>
-      <c r="X64" s="11"/>
-      <c r="Y64" s="11"/>
-      <c r="Z64" s="11"/>
-      <c r="AA64" s="11"/>
-      <c r="AB64" s="11"/>
-      <c r="AC64" s="11"/>
-      <c r="AD64" s="11"/>
-      <c r="AE64" s="11"/>
-      <c r="AF64" s="11"/>
-      <c r="AG64" s="11"/>
-      <c r="AH64" s="11"/>
-      <c r="AI64" s="11"/>
-      <c r="AJ64" s="11"/>
-      <c r="AK64" s="11"/>
-      <c r="AL64" s="11"/>
-      <c r="AM64" s="11"/>
-      <c r="AN64" s="11"/>
-      <c r="AO64" s="11"/>
-      <c r="AP64" s="11"/>
-      <c r="AQ64" s="11"/>
-      <c r="AR64" s="11"/>
-      <c r="AS64" s="11"/>
-      <c r="AT64" s="11"/>
-      <c r="AU64" s="11"/>
-      <c r="AV64" s="11"/>
-      <c r="AW64" s="11"/>
-      <c r="AX64" s="11"/>
-      <c r="AY64" s="11"/>
-      <c r="AZ64" s="11"/>
-      <c r="BA64" s="11"/>
-      <c r="BB64" s="11"/>
-      <c r="BC64" s="11"/>
-      <c r="BD64" s="11"/>
-      <c r="BE64" s="11"/>
-      <c r="BF64" s="11"/>
-      <c r="BG64" s="11"/>
-      <c r="BH64" s="11"/>
-      <c r="BI64" s="11"/>
-      <c r="BJ64" s="11"/>
-      <c r="BK64" s="11"/>
-      <c r="BL64" s="11"/>
-      <c r="AMJ64" s="11"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="10"/>
+      <c r="R64" s="10"/>
+      <c r="S64" s="10"/>
+      <c r="T64" s="10"/>
+      <c r="U64" s="10"/>
+      <c r="V64" s="10"/>
+      <c r="W64" s="10"/>
+      <c r="X64" s="10"/>
+      <c r="Y64" s="10"/>
+      <c r="Z64" s="10"/>
+      <c r="AA64" s="10"/>
+      <c r="AB64" s="10"/>
+      <c r="AC64" s="10"/>
+      <c r="AD64" s="10"/>
+      <c r="AE64" s="10"/>
+      <c r="AF64" s="10"/>
+      <c r="AG64" s="10"/>
+      <c r="AH64" s="10"/>
+      <c r="AI64" s="10"/>
+      <c r="AJ64" s="10"/>
+      <c r="AK64" s="10"/>
+      <c r="AL64" s="10"/>
+      <c r="AM64" s="10"/>
+      <c r="AN64" s="10"/>
+      <c r="AO64" s="10"/>
+      <c r="AP64" s="10"/>
+      <c r="AQ64" s="10"/>
+      <c r="AR64" s="10"/>
+      <c r="AS64" s="10"/>
+      <c r="AT64" s="10"/>
+      <c r="AU64" s="10"/>
+      <c r="AV64" s="10"/>
+      <c r="AW64" s="10"/>
+      <c r="AX64" s="10"/>
+      <c r="AY64" s="10"/>
+      <c r="AZ64" s="10"/>
+      <c r="BA64" s="10"/>
+      <c r="BB64" s="10"/>
+      <c r="BC64" s="10"/>
+      <c r="BD64" s="10"/>
+      <c r="BE64" s="10"/>
+      <c r="BF64" s="10"/>
+      <c r="BG64" s="10"/>
+      <c r="BH64" s="10"/>
+      <c r="BI64" s="10"/>
+      <c r="BJ64" s="10"/>
+      <c r="BK64" s="10"/>
+      <c r="BL64" s="10"/>
+      <c r="AMJ64" s="10"/>
     </row>
     <row r="65" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
@@ -2828,69 +3370,69 @@
         <v>181</v>
       </c>
       <c r="C67" s="5"/>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
-      <c r="L67" s="11"/>
-      <c r="M67" s="11"/>
-      <c r="N67" s="11"/>
-      <c r="O67" s="11"/>
-      <c r="P67" s="11"/>
-      <c r="Q67" s="11"/>
-      <c r="R67" s="11"/>
-      <c r="S67" s="11"/>
-      <c r="T67" s="11"/>
-      <c r="U67" s="11"/>
-      <c r="V67" s="11"/>
-      <c r="W67" s="11"/>
-      <c r="X67" s="11"/>
-      <c r="Y67" s="11"/>
-      <c r="Z67" s="11"/>
-      <c r="AA67" s="11"/>
-      <c r="AB67" s="11"/>
-      <c r="AC67" s="11"/>
-      <c r="AD67" s="11"/>
-      <c r="AE67" s="11"/>
-      <c r="AF67" s="11"/>
-      <c r="AG67" s="11"/>
-      <c r="AH67" s="11"/>
-      <c r="AI67" s="11"/>
-      <c r="AJ67" s="11"/>
-      <c r="AK67" s="11"/>
-      <c r="AL67" s="11"/>
-      <c r="AM67" s="11"/>
-      <c r="AN67" s="11"/>
-      <c r="AO67" s="11"/>
-      <c r="AP67" s="11"/>
-      <c r="AQ67" s="11"/>
-      <c r="AR67" s="11"/>
-      <c r="AS67" s="11"/>
-      <c r="AT67" s="11"/>
-      <c r="AU67" s="11"/>
-      <c r="AV67" s="11"/>
-      <c r="AW67" s="11"/>
-      <c r="AX67" s="11"/>
-      <c r="AY67" s="11"/>
-      <c r="AZ67" s="11"/>
-      <c r="BA67" s="11"/>
-      <c r="BB67" s="11"/>
-      <c r="BC67" s="11"/>
-      <c r="BD67" s="11"/>
-      <c r="BE67" s="11"/>
-      <c r="BF67" s="11"/>
-      <c r="BG67" s="11"/>
-      <c r="BH67" s="11"/>
-      <c r="BI67" s="11"/>
-      <c r="BJ67" s="11"/>
-      <c r="BK67" s="11"/>
-      <c r="BL67" s="11"/>
-      <c r="AMJ67" s="11"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="10"/>
+      <c r="U67" s="10"/>
+      <c r="V67" s="10"/>
+      <c r="W67" s="10"/>
+      <c r="X67" s="10"/>
+      <c r="Y67" s="10"/>
+      <c r="Z67" s="10"/>
+      <c r="AA67" s="10"/>
+      <c r="AB67" s="10"/>
+      <c r="AC67" s="10"/>
+      <c r="AD67" s="10"/>
+      <c r="AE67" s="10"/>
+      <c r="AF67" s="10"/>
+      <c r="AG67" s="10"/>
+      <c r="AH67" s="10"/>
+      <c r="AI67" s="10"/>
+      <c r="AJ67" s="10"/>
+      <c r="AK67" s="10"/>
+      <c r="AL67" s="10"/>
+      <c r="AM67" s="10"/>
+      <c r="AN67" s="10"/>
+      <c r="AO67" s="10"/>
+      <c r="AP67" s="10"/>
+      <c r="AQ67" s="10"/>
+      <c r="AR67" s="10"/>
+      <c r="AS67" s="10"/>
+      <c r="AT67" s="10"/>
+      <c r="AU67" s="10"/>
+      <c r="AV67" s="10"/>
+      <c r="AW67" s="10"/>
+      <c r="AX67" s="10"/>
+      <c r="AY67" s="10"/>
+      <c r="AZ67" s="10"/>
+      <c r="BA67" s="10"/>
+      <c r="BB67" s="10"/>
+      <c r="BC67" s="10"/>
+      <c r="BD67" s="10"/>
+      <c r="BE67" s="10"/>
+      <c r="BF67" s="10"/>
+      <c r="BG67" s="10"/>
+      <c r="BH67" s="10"/>
+      <c r="BI67" s="10"/>
+      <c r="BJ67" s="10"/>
+      <c r="BK67" s="10"/>
+      <c r="BL67" s="10"/>
+      <c r="AMJ67" s="10"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
@@ -2907,7 +3449,7 @@
       <c r="A69" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="8" t="s">
         <v>186</v>
       </c>
       <c r="D69" s="0" t="s">
@@ -2937,69 +3479,69 @@
       <c r="D71" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="11"/>
-      <c r="K71" s="11"/>
-      <c r="L71" s="11"/>
-      <c r="M71" s="11"/>
-      <c r="N71" s="11"/>
-      <c r="O71" s="11"/>
-      <c r="P71" s="11"/>
-      <c r="Q71" s="11"/>
-      <c r="R71" s="11"/>
-      <c r="S71" s="11"/>
-      <c r="T71" s="11"/>
-      <c r="U71" s="11"/>
-      <c r="V71" s="11"/>
-      <c r="W71" s="11"/>
-      <c r="X71" s="11"/>
-      <c r="Y71" s="11"/>
-      <c r="Z71" s="11"/>
-      <c r="AA71" s="11"/>
-      <c r="AB71" s="11"/>
-      <c r="AC71" s="11"/>
-      <c r="AD71" s="11"/>
-      <c r="AE71" s="11"/>
-      <c r="AF71" s="11"/>
-      <c r="AG71" s="11"/>
-      <c r="AH71" s="11"/>
-      <c r="AI71" s="11"/>
-      <c r="AJ71" s="11"/>
-      <c r="AK71" s="11"/>
-      <c r="AL71" s="11"/>
-      <c r="AM71" s="11"/>
-      <c r="AN71" s="11"/>
-      <c r="AO71" s="11"/>
-      <c r="AP71" s="11"/>
-      <c r="AQ71" s="11"/>
-      <c r="AR71" s="11"/>
-      <c r="AS71" s="11"/>
-      <c r="AT71" s="11"/>
-      <c r="AU71" s="11"/>
-      <c r="AV71" s="11"/>
-      <c r="AW71" s="11"/>
-      <c r="AX71" s="11"/>
-      <c r="AY71" s="11"/>
-      <c r="AZ71" s="11"/>
-      <c r="BA71" s="11"/>
-      <c r="BB71" s="11"/>
-      <c r="BC71" s="11"/>
-      <c r="BD71" s="11"/>
-      <c r="BE71" s="11"/>
-      <c r="BF71" s="11"/>
-      <c r="BG71" s="11"/>
-      <c r="BH71" s="11"/>
-      <c r="BI71" s="11"/>
-      <c r="BJ71" s="11"/>
-      <c r="BK71" s="11"/>
-      <c r="BL71" s="11"/>
-      <c r="AMJ71" s="11"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
+      <c r="R71" s="10"/>
+      <c r="S71" s="10"/>
+      <c r="T71" s="10"/>
+      <c r="U71" s="10"/>
+      <c r="V71" s="10"/>
+      <c r="W71" s="10"/>
+      <c r="X71" s="10"/>
+      <c r="Y71" s="10"/>
+      <c r="Z71" s="10"/>
+      <c r="AA71" s="10"/>
+      <c r="AB71" s="10"/>
+      <c r="AC71" s="10"/>
+      <c r="AD71" s="10"/>
+      <c r="AE71" s="10"/>
+      <c r="AF71" s="10"/>
+      <c r="AG71" s="10"/>
+      <c r="AH71" s="10"/>
+      <c r="AI71" s="10"/>
+      <c r="AJ71" s="10"/>
+      <c r="AK71" s="10"/>
+      <c r="AL71" s="10"/>
+      <c r="AM71" s="10"/>
+      <c r="AN71" s="10"/>
+      <c r="AO71" s="10"/>
+      <c r="AP71" s="10"/>
+      <c r="AQ71" s="10"/>
+      <c r="AR71" s="10"/>
+      <c r="AS71" s="10"/>
+      <c r="AT71" s="10"/>
+      <c r="AU71" s="10"/>
+      <c r="AV71" s="10"/>
+      <c r="AW71" s="10"/>
+      <c r="AX71" s="10"/>
+      <c r="AY71" s="10"/>
+      <c r="AZ71" s="10"/>
+      <c r="BA71" s="10"/>
+      <c r="BB71" s="10"/>
+      <c r="BC71" s="10"/>
+      <c r="BD71" s="10"/>
+      <c r="BE71" s="10"/>
+      <c r="BF71" s="10"/>
+      <c r="BG71" s="10"/>
+      <c r="BH71" s="10"/>
+      <c r="BI71" s="10"/>
+      <c r="BJ71" s="10"/>
+      <c r="BK71" s="10"/>
+      <c r="BL71" s="10"/>
+      <c r="AMJ71" s="10"/>
     </row>
     <row r="72" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
@@ -3012,69 +3554,69 @@
       <c r="D72" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="E72" s="8" t="s">
+      <c r="E72" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11"/>
-      <c r="L72" s="11"/>
-      <c r="M72" s="11"/>
-      <c r="N72" s="11"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
-      <c r="Q72" s="11"/>
-      <c r="R72" s="11"/>
-      <c r="S72" s="11"/>
-      <c r="T72" s="11"/>
-      <c r="U72" s="11"/>
-      <c r="V72" s="11"/>
-      <c r="W72" s="11"/>
-      <c r="X72" s="11"/>
-      <c r="Y72" s="11"/>
-      <c r="Z72" s="11"/>
-      <c r="AA72" s="11"/>
-      <c r="AB72" s="11"/>
-      <c r="AC72" s="11"/>
-      <c r="AD72" s="11"/>
-      <c r="AE72" s="11"/>
-      <c r="AF72" s="11"/>
-      <c r="AG72" s="11"/>
-      <c r="AH72" s="11"/>
-      <c r="AI72" s="11"/>
-      <c r="AJ72" s="11"/>
-      <c r="AK72" s="11"/>
-      <c r="AL72" s="11"/>
-      <c r="AM72" s="11"/>
-      <c r="AN72" s="11"/>
-      <c r="AO72" s="11"/>
-      <c r="AP72" s="11"/>
-      <c r="AQ72" s="11"/>
-      <c r="AR72" s="11"/>
-      <c r="AS72" s="11"/>
-      <c r="AT72" s="11"/>
-      <c r="AU72" s="11"/>
-      <c r="AV72" s="11"/>
-      <c r="AW72" s="11"/>
-      <c r="AX72" s="11"/>
-      <c r="AY72" s="11"/>
-      <c r="AZ72" s="11"/>
-      <c r="BA72" s="11"/>
-      <c r="BB72" s="11"/>
-      <c r="BC72" s="11"/>
-      <c r="BD72" s="11"/>
-      <c r="BE72" s="11"/>
-      <c r="BF72" s="11"/>
-      <c r="BG72" s="11"/>
-      <c r="BH72" s="11"/>
-      <c r="BI72" s="11"/>
-      <c r="BJ72" s="11"/>
-      <c r="BK72" s="11"/>
-      <c r="BL72" s="11"/>
-      <c r="AMJ72" s="11"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
+      <c r="R72" s="10"/>
+      <c r="S72" s="10"/>
+      <c r="T72" s="10"/>
+      <c r="U72" s="10"/>
+      <c r="V72" s="10"/>
+      <c r="W72" s="10"/>
+      <c r="X72" s="10"/>
+      <c r="Y72" s="10"/>
+      <c r="Z72" s="10"/>
+      <c r="AA72" s="10"/>
+      <c r="AB72" s="10"/>
+      <c r="AC72" s="10"/>
+      <c r="AD72" s="10"/>
+      <c r="AE72" s="10"/>
+      <c r="AF72" s="10"/>
+      <c r="AG72" s="10"/>
+      <c r="AH72" s="10"/>
+      <c r="AI72" s="10"/>
+      <c r="AJ72" s="10"/>
+      <c r="AK72" s="10"/>
+      <c r="AL72" s="10"/>
+      <c r="AM72" s="10"/>
+      <c r="AN72" s="10"/>
+      <c r="AO72" s="10"/>
+      <c r="AP72" s="10"/>
+      <c r="AQ72" s="10"/>
+      <c r="AR72" s="10"/>
+      <c r="AS72" s="10"/>
+      <c r="AT72" s="10"/>
+      <c r="AU72" s="10"/>
+      <c r="AV72" s="10"/>
+      <c r="AW72" s="10"/>
+      <c r="AX72" s="10"/>
+      <c r="AY72" s="10"/>
+      <c r="AZ72" s="10"/>
+      <c r="BA72" s="10"/>
+      <c r="BB72" s="10"/>
+      <c r="BC72" s="10"/>
+      <c r="BD72" s="10"/>
+      <c r="BE72" s="10"/>
+      <c r="BF72" s="10"/>
+      <c r="BG72" s="10"/>
+      <c r="BH72" s="10"/>
+      <c r="BI72" s="10"/>
+      <c r="BJ72" s="10"/>
+      <c r="BK72" s="10"/>
+      <c r="BL72" s="10"/>
+      <c r="AMJ72" s="10"/>
     </row>
     <row r="73" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
@@ -3084,69 +3626,69 @@
         <v>196</v>
       </c>
       <c r="C73" s="5"/>
-      <c r="E73" s="8" t="s">
+      <c r="E73" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
-      <c r="M73" s="11"/>
-      <c r="N73" s="11"/>
-      <c r="O73" s="11"/>
-      <c r="P73" s="11"/>
-      <c r="Q73" s="11"/>
-      <c r="R73" s="11"/>
-      <c r="S73" s="11"/>
-      <c r="T73" s="11"/>
-      <c r="U73" s="11"/>
-      <c r="V73" s="11"/>
-      <c r="W73" s="11"/>
-      <c r="X73" s="11"/>
-      <c r="Y73" s="11"/>
-      <c r="Z73" s="11"/>
-      <c r="AA73" s="11"/>
-      <c r="AB73" s="11"/>
-      <c r="AC73" s="11"/>
-      <c r="AD73" s="11"/>
-      <c r="AE73" s="11"/>
-      <c r="AF73" s="11"/>
-      <c r="AG73" s="11"/>
-      <c r="AH73" s="11"/>
-      <c r="AI73" s="11"/>
-      <c r="AJ73" s="11"/>
-      <c r="AK73" s="11"/>
-      <c r="AL73" s="11"/>
-      <c r="AM73" s="11"/>
-      <c r="AN73" s="11"/>
-      <c r="AO73" s="11"/>
-      <c r="AP73" s="11"/>
-      <c r="AQ73" s="11"/>
-      <c r="AR73" s="11"/>
-      <c r="AS73" s="11"/>
-      <c r="AT73" s="11"/>
-      <c r="AU73" s="11"/>
-      <c r="AV73" s="11"/>
-      <c r="AW73" s="11"/>
-      <c r="AX73" s="11"/>
-      <c r="AY73" s="11"/>
-      <c r="AZ73" s="11"/>
-      <c r="BA73" s="11"/>
-      <c r="BB73" s="11"/>
-      <c r="BC73" s="11"/>
-      <c r="BD73" s="11"/>
-      <c r="BE73" s="11"/>
-      <c r="BF73" s="11"/>
-      <c r="BG73" s="11"/>
-      <c r="BH73" s="11"/>
-      <c r="BI73" s="11"/>
-      <c r="BJ73" s="11"/>
-      <c r="BK73" s="11"/>
-      <c r="BL73" s="11"/>
-      <c r="AMJ73" s="11"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="10"/>
+      <c r="P73" s="10"/>
+      <c r="Q73" s="10"/>
+      <c r="R73" s="10"/>
+      <c r="S73" s="10"/>
+      <c r="T73" s="10"/>
+      <c r="U73" s="10"/>
+      <c r="V73" s="10"/>
+      <c r="W73" s="10"/>
+      <c r="X73" s="10"/>
+      <c r="Y73" s="10"/>
+      <c r="Z73" s="10"/>
+      <c r="AA73" s="10"/>
+      <c r="AB73" s="10"/>
+      <c r="AC73" s="10"/>
+      <c r="AD73" s="10"/>
+      <c r="AE73" s="10"/>
+      <c r="AF73" s="10"/>
+      <c r="AG73" s="10"/>
+      <c r="AH73" s="10"/>
+      <c r="AI73" s="10"/>
+      <c r="AJ73" s="10"/>
+      <c r="AK73" s="10"/>
+      <c r="AL73" s="10"/>
+      <c r="AM73" s="10"/>
+      <c r="AN73" s="10"/>
+      <c r="AO73" s="10"/>
+      <c r="AP73" s="10"/>
+      <c r="AQ73" s="10"/>
+      <c r="AR73" s="10"/>
+      <c r="AS73" s="10"/>
+      <c r="AT73" s="10"/>
+      <c r="AU73" s="10"/>
+      <c r="AV73" s="10"/>
+      <c r="AW73" s="10"/>
+      <c r="AX73" s="10"/>
+      <c r="AY73" s="10"/>
+      <c r="AZ73" s="10"/>
+      <c r="BA73" s="10"/>
+      <c r="BB73" s="10"/>
+      <c r="BC73" s="10"/>
+      <c r="BD73" s="10"/>
+      <c r="BE73" s="10"/>
+      <c r="BF73" s="10"/>
+      <c r="BG73" s="10"/>
+      <c r="BH73" s="10"/>
+      <c r="BI73" s="10"/>
+      <c r="BJ73" s="10"/>
+      <c r="BK73" s="10"/>
+      <c r="BL73" s="10"/>
+      <c r="AMJ73" s="10"/>
     </row>
     <row r="74" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
@@ -3156,69 +3698,69 @@
         <v>199</v>
       </c>
       <c r="C74" s="5"/>
-      <c r="E74" s="8" t="s">
+      <c r="E74" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="11"/>
-      <c r="K74" s="11"/>
-      <c r="L74" s="11"/>
-      <c r="M74" s="11"/>
-      <c r="N74" s="11"/>
-      <c r="O74" s="11"/>
-      <c r="P74" s="11"/>
-      <c r="Q74" s="11"/>
-      <c r="R74" s="11"/>
-      <c r="S74" s="11"/>
-      <c r="T74" s="11"/>
-      <c r="U74" s="11"/>
-      <c r="V74" s="11"/>
-      <c r="W74" s="11"/>
-      <c r="X74" s="11"/>
-      <c r="Y74" s="11"/>
-      <c r="Z74" s="11"/>
-      <c r="AA74" s="11"/>
-      <c r="AB74" s="11"/>
-      <c r="AC74" s="11"/>
-      <c r="AD74" s="11"/>
-      <c r="AE74" s="11"/>
-      <c r="AF74" s="11"/>
-      <c r="AG74" s="11"/>
-      <c r="AH74" s="11"/>
-      <c r="AI74" s="11"/>
-      <c r="AJ74" s="11"/>
-      <c r="AK74" s="11"/>
-      <c r="AL74" s="11"/>
-      <c r="AM74" s="11"/>
-      <c r="AN74" s="11"/>
-      <c r="AO74" s="11"/>
-      <c r="AP74" s="11"/>
-      <c r="AQ74" s="11"/>
-      <c r="AR74" s="11"/>
-      <c r="AS74" s="11"/>
-      <c r="AT74" s="11"/>
-      <c r="AU74" s="11"/>
-      <c r="AV74" s="11"/>
-      <c r="AW74" s="11"/>
-      <c r="AX74" s="11"/>
-      <c r="AY74" s="11"/>
-      <c r="AZ74" s="11"/>
-      <c r="BA74" s="11"/>
-      <c r="BB74" s="11"/>
-      <c r="BC74" s="11"/>
-      <c r="BD74" s="11"/>
-      <c r="BE74" s="11"/>
-      <c r="BF74" s="11"/>
-      <c r="BG74" s="11"/>
-      <c r="BH74" s="11"/>
-      <c r="BI74" s="11"/>
-      <c r="BJ74" s="11"/>
-      <c r="BK74" s="11"/>
-      <c r="BL74" s="11"/>
-      <c r="AMJ74" s="11"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10"/>
+      <c r="S74" s="10"/>
+      <c r="T74" s="10"/>
+      <c r="U74" s="10"/>
+      <c r="V74" s="10"/>
+      <c r="W74" s="10"/>
+      <c r="X74" s="10"/>
+      <c r="Y74" s="10"/>
+      <c r="Z74" s="10"/>
+      <c r="AA74" s="10"/>
+      <c r="AB74" s="10"/>
+      <c r="AC74" s="10"/>
+      <c r="AD74" s="10"/>
+      <c r="AE74" s="10"/>
+      <c r="AF74" s="10"/>
+      <c r="AG74" s="10"/>
+      <c r="AH74" s="10"/>
+      <c r="AI74" s="10"/>
+      <c r="AJ74" s="10"/>
+      <c r="AK74" s="10"/>
+      <c r="AL74" s="10"/>
+      <c r="AM74" s="10"/>
+      <c r="AN74" s="10"/>
+      <c r="AO74" s="10"/>
+      <c r="AP74" s="10"/>
+      <c r="AQ74" s="10"/>
+      <c r="AR74" s="10"/>
+      <c r="AS74" s="10"/>
+      <c r="AT74" s="10"/>
+      <c r="AU74" s="10"/>
+      <c r="AV74" s="10"/>
+      <c r="AW74" s="10"/>
+      <c r="AX74" s="10"/>
+      <c r="AY74" s="10"/>
+      <c r="AZ74" s="10"/>
+      <c r="BA74" s="10"/>
+      <c r="BB74" s="10"/>
+      <c r="BC74" s="10"/>
+      <c r="BD74" s="10"/>
+      <c r="BE74" s="10"/>
+      <c r="BF74" s="10"/>
+      <c r="BG74" s="10"/>
+      <c r="BH74" s="10"/>
+      <c r="BI74" s="10"/>
+      <c r="BJ74" s="10"/>
+      <c r="BK74" s="10"/>
+      <c r="BL74" s="10"/>
+      <c r="AMJ74" s="10"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
@@ -3240,69 +3782,69 @@
         <v>203</v>
       </c>
       <c r="C76" s="5"/>
-      <c r="E76" s="8" t="s">
+      <c r="E76" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11"/>
-      <c r="J76" s="11"/>
-      <c r="K76" s="11"/>
-      <c r="L76" s="11"/>
-      <c r="M76" s="11"/>
-      <c r="N76" s="11"/>
-      <c r="O76" s="11"/>
-      <c r="P76" s="11"/>
-      <c r="Q76" s="11"/>
-      <c r="R76" s="11"/>
-      <c r="S76" s="11"/>
-      <c r="T76" s="11"/>
-      <c r="U76" s="11"/>
-      <c r="V76" s="11"/>
-      <c r="W76" s="11"/>
-      <c r="X76" s="11"/>
-      <c r="Y76" s="11"/>
-      <c r="Z76" s="11"/>
-      <c r="AA76" s="11"/>
-      <c r="AB76" s="11"/>
-      <c r="AC76" s="11"/>
-      <c r="AD76" s="11"/>
-      <c r="AE76" s="11"/>
-      <c r="AF76" s="11"/>
-      <c r="AG76" s="11"/>
-      <c r="AH76" s="11"/>
-      <c r="AI76" s="11"/>
-      <c r="AJ76" s="11"/>
-      <c r="AK76" s="11"/>
-      <c r="AL76" s="11"/>
-      <c r="AM76" s="11"/>
-      <c r="AN76" s="11"/>
-      <c r="AO76" s="11"/>
-      <c r="AP76" s="11"/>
-      <c r="AQ76" s="11"/>
-      <c r="AR76" s="11"/>
-      <c r="AS76" s="11"/>
-      <c r="AT76" s="11"/>
-      <c r="AU76" s="11"/>
-      <c r="AV76" s="11"/>
-      <c r="AW76" s="11"/>
-      <c r="AX76" s="11"/>
-      <c r="AY76" s="11"/>
-      <c r="AZ76" s="11"/>
-      <c r="BA76" s="11"/>
-      <c r="BB76" s="11"/>
-      <c r="BC76" s="11"/>
-      <c r="BD76" s="11"/>
-      <c r="BE76" s="11"/>
-      <c r="BF76" s="11"/>
-      <c r="BG76" s="11"/>
-      <c r="BH76" s="11"/>
-      <c r="BI76" s="11"/>
-      <c r="BJ76" s="11"/>
-      <c r="BK76" s="11"/>
-      <c r="BL76" s="11"/>
-      <c r="AMJ76" s="11"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="10"/>
+      <c r="S76" s="10"/>
+      <c r="T76" s="10"/>
+      <c r="U76" s="10"/>
+      <c r="V76" s="10"/>
+      <c r="W76" s="10"/>
+      <c r="X76" s="10"/>
+      <c r="Y76" s="10"/>
+      <c r="Z76" s="10"/>
+      <c r="AA76" s="10"/>
+      <c r="AB76" s="10"/>
+      <c r="AC76" s="10"/>
+      <c r="AD76" s="10"/>
+      <c r="AE76" s="10"/>
+      <c r="AF76" s="10"/>
+      <c r="AG76" s="10"/>
+      <c r="AH76" s="10"/>
+      <c r="AI76" s="10"/>
+      <c r="AJ76" s="10"/>
+      <c r="AK76" s="10"/>
+      <c r="AL76" s="10"/>
+      <c r="AM76" s="10"/>
+      <c r="AN76" s="10"/>
+      <c r="AO76" s="10"/>
+      <c r="AP76" s="10"/>
+      <c r="AQ76" s="10"/>
+      <c r="AR76" s="10"/>
+      <c r="AS76" s="10"/>
+      <c r="AT76" s="10"/>
+      <c r="AU76" s="10"/>
+      <c r="AV76" s="10"/>
+      <c r="AW76" s="10"/>
+      <c r="AX76" s="10"/>
+      <c r="AY76" s="10"/>
+      <c r="AZ76" s="10"/>
+      <c r="BA76" s="10"/>
+      <c r="BB76" s="10"/>
+      <c r="BC76" s="10"/>
+      <c r="BD76" s="10"/>
+      <c r="BE76" s="10"/>
+      <c r="BF76" s="10"/>
+      <c r="BG76" s="10"/>
+      <c r="BH76" s="10"/>
+      <c r="BI76" s="10"/>
+      <c r="BJ76" s="10"/>
+      <c r="BK76" s="10"/>
+      <c r="BL76" s="10"/>
+      <c r="AMJ76" s="10"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
@@ -3333,108 +3875,934 @@
         <v>210</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="47.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>212</v>
+      </c>
       <c r="C79" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>214</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>216</v>
+      </c>
       <c r="C80" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D80" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C81" s="3" t="s">
-        <v>215</v>
+      <c r="A81" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>219</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="36.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C82" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C83" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D83" s="0" t="s">
-        <v>220</v>
+      <c r="A83" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C84" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D84" s="0" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="36.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C85" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>224</v>
+      <c r="A84" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C86" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D86" s="0" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C87" s="3" t="s">
-        <v>227</v>
-      </c>
+      <c r="A86" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C87" s="5"/>
       <c r="D87" s="2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C88" s="3" t="s">
-        <v>229</v>
+      <c r="A88" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C89" s="3" t="s">
-        <v>231</v>
+      <c r="A89" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>239</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C90" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D90" s="0" t="s">
-        <v>234</v>
+      <c r="A90" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="2" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
-        <v>235</v>
+      <c r="A91" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>245</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>236</v>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="E133" s="0" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E134" s="0" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E135" s="0" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="E136" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E137" s="0" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="E138" s="0" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="E139" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E140" s="0" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="E141" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="E142" s="0" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="E143" s="0" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="E144" s="0" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E145" s="0" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="E146" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="E147" s="0" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E148" s="0" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="E149" s="0" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="E150" s="0" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="E151" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="E152" s="0" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="E153" s="0" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="E154" s="0" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="E155" s="0" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="E156" s="0" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="E157" s="0" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="E158" s="0" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="E159" s="0" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="E160" s="0" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="E161" s="0" t="s">
+        <v>418</v>
       </c>
     </row>
   </sheetData>
